--- a/Internet - Software Services/RDDT.xlsx
+++ b/Internet - Software Services/RDDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Internet - Software Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED3F1178-D8D4-4D4C-AFDF-D0245AB00DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDC21B0-222C-4BC0-8556-44329D321D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="90" windowWidth="14460" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$15</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$16</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$15:$W$15</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$16:$W$16</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$W$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$18:$W$18</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$4</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$3:$W$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$4:$W$4</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$5:$W$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$6:$W$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="204">
   <si>
     <t>Price</t>
   </si>
@@ -725,12 +725,6 @@
     <t>Descriptive Statistics</t>
   </si>
   <si>
-    <t>Prod1 y/y</t>
-  </si>
-  <si>
-    <t>Prod2 y/y</t>
-  </si>
-  <si>
     <t>R&amp;D / REV</t>
   </si>
   <si>
@@ -924,6 +918,18 @@
   </si>
   <si>
     <t>Pension</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>US y/y</t>
+  </si>
+  <si>
+    <t>International y/y</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1691,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1842,6 +1848,21 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1899,27 +1920,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2021,7 +2036,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$3</c:f>
+              <c:f>Model!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2184,10 +2199,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$3:$W$3</c:f>
+              <c:f>Model!$K$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2218,7 +2260,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2295,7 +2337,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$19:$W$19</c:f>
+              <c:f>Model!$K$21:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2324,7 +2366,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.48442272449602952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2668,7 +2710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$3</c:f>
+              <c:f>Model!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2700,6 +2742,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-58C0-49E6-87E7-ADBA3DDE477C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2802,7 +2849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$3:$H$3</c:f>
+              <c:f>Model!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2853,7 +2900,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$19</c:f>
+              <c:f>Model!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2940,7 +2987,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$19:$H$19</c:f>
+              <c:f>Model!$C$21:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3301,7 +3348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$13</c:f>
+              <c:f>Model!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3464,7 +3511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$13:$W$13</c:f>
+              <c:f>Model!$K$15:$W$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3475,9 +3522,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -3493,7 +3537,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-60.905999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3505,7 +3549,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-575.029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3537,7 +3581,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$17</c:f>
+              <c:f>Model!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3614,7 +3658,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$17:$W$17</c:f>
+              <c:f>Model!$K$19:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3643,7 +3687,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.83590103848503361</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3653,6 +3697,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88635390946502057</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,7 +4043,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$13</c:f>
+              <c:f>Model!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4096,7 +4143,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$13:$H$13</c:f>
+              <c:f>Model!$C$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4142,7 +4189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$25</c:f>
+              <c:f>Model!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4217,7 +4264,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$25:$H$25</c:f>
+              <c:f>Model!$C$27:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4593,7 +4640,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4727,7 +4774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$20:$U$20</c:f>
+              <c:f>Model!$K$22:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4756,7 +4803,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.66442883323152113</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4779,7 +4826,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4872,7 +4919,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$21:$V$21</c:f>
+              <c:f>Model!$K$23:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4901,7 +4948,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.35376298106292003</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -4927,7 +4974,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5020,7 +5067,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$22:$V$22</c:f>
+              <c:f>Model!$K$24:$V$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5049,7 +5096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.24924251679902262</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5364,7 +5411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$20</c:f>
+              <c:f>Model!$B$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5477,7 +5524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$20:$F$20</c:f>
+              <c:f>Model!$C$22:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5508,7 +5555,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$21</c:f>
+              <c:f>Model!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5621,7 +5668,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$21:$F$21</c:f>
+              <c:f>Model!$C$23:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5652,7 +5699,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Model!$B$22</c:f>
+              <c:f>Model!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5765,7 +5812,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$C$22:$F$22</c:f>
+              <c:f>Model!$C$24:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -13141,7 +13188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -13163,7 +13210,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
@@ -13204,10 +13251,10 @@
       <c r="I3" s="10"/>
       <c r="J3" s="39"/>
       <c r="L3" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N3" s="38"/>
     </row>
@@ -13221,10 +13268,10 @@
       <c r="I4" s="10"/>
       <c r="J4" s="39"/>
       <c r="L4" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13236,10 +13283,10 @@
       <c r="I5" s="10"/>
       <c r="J5" s="39"/>
       <c r="L5" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13255,10 +13302,10 @@
       <c r="I6" s="10"/>
       <c r="J6" s="39"/>
       <c r="L6" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13267,7 +13314,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <f>Model!F14</f>
+        <f>Model!F16</f>
         <v>158.98356999999999</v>
       </c>
       <c r="E7" s="5"/>
@@ -13275,10 +13322,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="39"/>
       <c r="L7" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13295,10 +13342,10 @@
       <c r="I8" s="10"/>
       <c r="J8" s="39"/>
       <c r="L8" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13307,7 +13354,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!F29+Model!F30</f>
+        <f>Model!F31+Model!F32</f>
         <v>1213.1220000000001</v>
       </c>
       <c r="E9" s="5"/>
@@ -13315,10 +13362,10 @@
       <c r="I9" s="10"/>
       <c r="J9" s="39"/>
       <c r="L9" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13327,7 +13374,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F48+Model!F52+Model!F54</f>
+        <f>Model!F50+Model!F54+Model!F56</f>
         <v>1879.239</v>
       </c>
       <c r="E10" s="5"/>
@@ -13335,10 +13382,10 @@
       <c r="I10" s="10"/>
       <c r="J10" s="39"/>
       <c r="L10" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -13355,10 +13402,10 @@
       <c r="I11" s="10"/>
       <c r="J11" s="39"/>
       <c r="L11" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13374,10 +13421,10 @@
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -13386,7 +13433,7 @@
         <v>49</v>
       </c>
       <c r="C13" s="36">
-        <f>C6/Model!F15</f>
+        <f>C6/Model!F17</f>
         <v>-81.378778398881295</v>
       </c>
       <c r="E13" s="5"/>
@@ -13399,7 +13446,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="36">
-        <f>C6/Model!G16</f>
+        <f>C6/Model!G18</f>
         <v>-7.0761035007610351</v>
       </c>
       <c r="E14" s="22"/>
@@ -13417,7 +13464,7 @@
         <v>48</v>
       </c>
       <c r="C15" s="36">
-        <f>C6/Model!H16</f>
+        <f>C6/Model!H18</f>
         <v>-39.398305084745765</v>
       </c>
     </row>
@@ -13426,7 +13473,7 @@
         <v>45</v>
       </c>
       <c r="C16" s="6">
-        <f>Model!G16/Model!F15-1</f>
+        <f>Model!G18/Model!F17-1</f>
         <v>10.500507078525493</v>
       </c>
     </row>
@@ -13435,15 +13482,15 @@
         <v>46</v>
       </c>
       <c r="C17" s="6">
-        <f>Model!H16/Model!G16-1</f>
+        <f>Model!H18/Model!G18-1</f>
         <v>-0.82039573820395739</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13453,9 +13500,9 @@
         <f>C14/(C16*100)</f>
         <v>-6.7388207520304617E-3</v>
       </c>
-      <c r="L18" s="129"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="131"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13465,81 +13512,81 @@
         <f>C15/(C17*100)</f>
         <v>0.48023536995691957</v>
       </c>
-      <c r="L19" s="129"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="131"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C20" s="6">
-        <f>Model!G4/Model!F3-1</f>
+        <f>Model!G6/Model!F5-1</f>
         <v>0.22629905140237483</v>
       </c>
-      <c r="L20" s="129"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="131"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C21" s="6">
-        <f>Model!H4/Model!G4-1</f>
+        <f>Model!H6/Model!G6-1</f>
         <v>0.22720541998823496</v>
       </c>
-      <c r="L21" s="129"/>
-      <c r="M21" s="130"/>
-      <c r="N21" s="131"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C22" s="15">
-        <f>Model!F11</f>
+        <f>Model!F13</f>
         <v>-87.023000000000053</v>
       </c>
-      <c r="L22" s="129"/>
-      <c r="M22" s="130"/>
-      <c r="N22" s="131"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="15">
-        <f>Model!F11</f>
+        <f>Model!F13</f>
         <v>-87.023000000000053</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="131"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!F17</f>
+        <f>Model!F19</f>
         <v>0.86193159699463573</v>
       </c>
-      <c r="L24" s="129"/>
-      <c r="M24" s="130"/>
-      <c r="N24" s="131"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!F18</f>
+        <f>Model!F20</f>
         <v>-0.11296109966182818</v>
       </c>
-      <c r="L25" s="129"/>
-      <c r="M25" s="130"/>
-      <c r="N25" s="131"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="136"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -13549,40 +13596,40 @@
         <f>C12/C23</f>
         <v>-92.587743117336743</v>
       </c>
-      <c r="L26" s="129"/>
-      <c r="M26" s="130"/>
-      <c r="N26" s="131"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C27" s="122">
-        <f>Main!C10/Model!F57</f>
+        <f>Main!C10/Model!F59</f>
         <v>-4.5510750214326166</v>
       </c>
       <c r="E27" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="129"/>
-      <c r="M27" s="130"/>
-      <c r="N27" s="131"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C28" s="36"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="139"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!F36/Model!F51</f>
+        <f>Model!F38/Model!F53</f>
         <v>11.077989069401811</v>
       </c>
     </row>
@@ -13591,7 +13638,7 @@
         <v>88</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!F29+Model!F30+Model!F31)/Model!F51</f>
+        <f>(Model!F31+Model!F32+Model!F33)/Model!F53</f>
         <v>10.918626937186495</v>
       </c>
     </row>
@@ -13600,7 +13647,7 @@
         <v>89</v>
       </c>
       <c r="C31" s="6">
-        <f>(Model!F36-Model!F51)/Model!F44</f>
+        <f>(Model!F38-Model!F53)/Model!F46</f>
         <v>0.84318498284023424</v>
       </c>
     </row>
@@ -13609,7 +13656,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!F36-Model!F56)/Main!C7</f>
+        <f>(Model!F38-Model!F58)/Main!C7</f>
         <v>-3.3318034058487935</v>
       </c>
     </row>
@@ -13618,7 +13665,7 @@
         <v>91</v>
       </c>
       <c r="C33" s="36">
-        <f>Model!F3/Model!F44</f>
+        <f>Model!F5/Model!F46</f>
         <v>0.5036302034429776</v>
       </c>
     </row>
@@ -13627,7 +13674,7 @@
         <v>92</v>
       </c>
       <c r="C34" s="39">
-        <f>Model!F13/Model!F44</f>
+        <f>Model!F15/Model!F46</f>
         <v>-5.6890621603829003E-2</v>
       </c>
     </row>
@@ -13636,7 +13683,7 @@
         <v>93</v>
       </c>
       <c r="C35" s="39">
-        <f>Model!F13/Model!F57</f>
+        <f>Model!F15/Model!F59</f>
         <v>0.21995437394955947</v>
       </c>
     </row>
@@ -13675,190 +13722,190 @@
       <c r="I44" s="61"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="145" t="s">
+      <c r="E45" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="127" t="s">
+        <v>160</v>
+      </c>
+      <c r="H45" s="127" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="F45" s="146" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="146" t="s">
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="128" t="s">
         <v>162</v>
       </c>
-      <c r="H45" s="146" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="146" t="s">
+      <c r="F46" s="129" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="147" t="s">
+      <c r="G46" s="129" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="148" t="s">
+      <c r="H46" s="129" t="s">
         <v>165</v>
       </c>
-      <c r="G46" s="148" t="s">
+      <c r="I46" s="129">
+        <v>264.22500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="H46" s="148" t="s">
+      <c r="F47" s="129" t="s">
         <v>167</v>
       </c>
-      <c r="I46" s="148">
-        <v>264.22500000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="147" t="s">
+      <c r="G47" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H47" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" s="129">
+        <v>530.45699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="F47" s="148" t="s">
+      <c r="F48" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H47" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I47" s="148">
-        <v>530.45699999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="147" t="s">
+      <c r="G48" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="129">
+        <v>468.87900000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="148" t="s">
+      <c r="F49" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="G48" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H48" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I48" s="148">
-        <v>468.87900000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="147" t="s">
+      <c r="G49" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I49" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="F49" s="148" t="s">
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H49" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I49" s="148" t="s">
+      <c r="F50" s="129" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="147" t="s">
+      <c r="G50" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="129">
+        <v>246.77799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="F50" s="148" t="s">
+      <c r="F51" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="G50" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H50" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="148">
-        <v>246.77799999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="147" t="s">
+      <c r="G51" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H51" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="129">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="F51" s="148" t="s">
+      <c r="F52" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="G51" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H51" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I51" s="148">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="147" t="s">
+      <c r="G52" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H52" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="F52" s="148" t="s">
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="128" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" s="148" t="s">
+      <c r="F53" s="129" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="147" t="s">
+      <c r="G53" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="F53" s="148" t="s">
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="128" t="s">
         <v>183</v>
       </c>
-      <c r="G53" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="148" t="s">
+      <c r="F54" s="129" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="147" t="s">
+      <c r="G54" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I54" s="129" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="148" t="s">
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H54" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I54" s="148" t="s">
+      <c r="F55" s="129" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="147" t="s">
+      <c r="G55" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="129" t="s">
+        <v>165</v>
+      </c>
+      <c r="I55" s="129" t="s">
         <v>188</v>
-      </c>
-      <c r="F55" s="148" t="s">
-        <v>189</v>
-      </c>
-      <c r="G55" s="148" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" s="148" t="s">
-        <v>167</v>
-      </c>
-      <c r="I55" s="148" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -13872,13 +13919,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13886,7 +13933,8 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="13"/>
+    <col min="22" max="22" width="11.42578125" style="150"/>
+    <col min="23" max="23" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -13946,167 +13994,174 @@
       <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="13" t="s">
         <v>65</v>
       </c>
       <c r="X2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="149" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10">
+        <v>130.6</v>
+      </c>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="151"/>
+      <c r="W3" s="15">
+        <v>199.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
+        <v>33.1</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="15">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="150">
+      <c r="C5" s="11">
         <v>228.90799999999999</v>
       </c>
-      <c r="D3" s="150">
+      <c r="D5" s="11">
         <v>484.916</v>
       </c>
-      <c r="E3" s="150">
+      <c r="E5" s="11">
         <v>666.70100000000002</v>
       </c>
-      <c r="F3" s="151">
+      <c r="F5" s="14">
         <v>804.029</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G5" s="160">
         <v>985.98</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H5" s="160">
         <v>1210</v>
       </c>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="150"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="152">
+        <f t="shared" ref="O5:V5" si="0">SUM(O3:O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="152">
+        <f t="shared" si="0"/>
+        <v>163.69999999999999</v>
+      </c>
+      <c r="T5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="152">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <f>SUM(W3:W4)</f>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="43">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="43">
         <v>985.98</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H6" s="43">
         <v>1210</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="154">
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="151"/>
+      <c r="W6" s="157">
         <v>212.83</v>
       </c>
-      <c r="X4" s="43">
+      <c r="X6" s="43">
         <v>223.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="149" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="150">
-        <v>55.026000000000003</v>
-      </c>
-      <c r="D5" s="150">
-        <v>72.564999999999998</v>
-      </c>
-      <c r="E5" s="150">
-        <v>104.79900000000001</v>
-      </c>
-      <c r="F5" s="151">
-        <v>111.011</v>
-      </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="151"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="10">
-        <v>75.396000000000001</v>
-      </c>
-      <c r="D6" s="10">
-        <v>137.86699999999999</v>
-      </c>
-      <c r="E6" s="10">
-        <v>225.078</v>
-      </c>
-      <c r="F6" s="15">
-        <v>230.17500000000001</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="15"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C7" s="10">
-        <v>43.517000000000003</v>
+        <v>55.026000000000003</v>
       </c>
       <c r="D7" s="10">
-        <v>144.72200000000001</v>
+        <v>72.564999999999998</v>
       </c>
       <c r="E7" s="10">
-        <v>143.822</v>
+        <v>104.79900000000001</v>
       </c>
       <c r="F7" s="15">
-        <v>164.65799999999999</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+        <v>111.011</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -14115,29 +14170,35 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="10">
+        <v>26.863</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="15"/>
+      <c r="V7" s="151"/>
+      <c r="W7" s="15">
+        <v>27.616</v>
+      </c>
+      <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C8" s="10">
-        <v>117.526</v>
+        <v>75.396000000000001</v>
       </c>
       <c r="D8" s="10">
-        <v>256.97500000000002</v>
+        <v>137.86699999999999</v>
       </c>
       <c r="E8" s="10">
-        <v>365.16399999999999</v>
+        <v>225.078</v>
       </c>
       <c r="F8" s="15">
-        <v>438.346</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+        <v>230.17500000000001</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -14146,116 +14207,70 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="10">
+        <v>108.767</v>
+      </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10"/>
-      <c r="V8" s="15"/>
-    </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="11">
-        <f>C3-SUM(C5:C8)</f>
-        <v>-62.556999999999988</v>
-      </c>
-      <c r="D9" s="11">
-        <f>D3-SUM(D5:D8)</f>
-        <v>-127.21300000000002</v>
-      </c>
-      <c r="E9" s="11">
-        <f>E3-SUM(E5:E8)</f>
-        <v>-172.16200000000003</v>
-      </c>
-      <c r="F9" s="14">
-        <f>F3-SUM(F5:F8)</f>
-        <v>-140.16100000000006</v>
-      </c>
-      <c r="G9" s="11">
-        <f>G3-SUM(G5:G8)</f>
-        <v>985.98</v>
-      </c>
-      <c r="H9" s="11">
-        <f>H3-SUM(H5:H8)</f>
-        <v>1210</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f>K3-SUM(K5:K8)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11">
-        <f>L3-SUM(L5:L8)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <f>M3-SUM(M5:M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <f>N3-SUM(N5:N8)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="11">
-        <f>O3-SUM(O5:O8)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="11">
-        <f>P3-SUM(P5:P8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="11">
-        <f>Q3-SUM(Q5:Q8)</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="11">
-        <f>R3-SUM(R5:R8)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="11">
-        <f>S3-SUM(S5:S8)</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="11">
-        <f>T3-SUM(T5:T8)</f>
-        <v>0</v>
-      </c>
-      <c r="U9" s="11">
-        <f>U3-SUM(U5:U8)</f>
-        <v>0</v>
-      </c>
-      <c r="V9" s="14">
-        <f>V3-SUM(V5:V8)</f>
-        <v>0</v>
-      </c>
-      <c r="W9" s="11">
-        <f>W3-SUM(W5:W8)</f>
-        <v>0</v>
-      </c>
-      <c r="X9" s="11">
-        <f>X3-SUM(X5:X8)</f>
-        <v>0</v>
+      <c r="V8" s="151"/>
+      <c r="W8" s="15">
+        <v>437.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="10">
+        <v>43.517000000000003</v>
+      </c>
+      <c r="D9" s="10">
+        <v>144.72200000000001</v>
+      </c>
+      <c r="E9" s="10">
+        <v>143.822</v>
+      </c>
+      <c r="F9" s="15">
+        <v>164.65799999999999</v>
+      </c>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10">
+        <v>57.911000000000001</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="151"/>
+      <c r="W9" s="15">
+        <v>124.095</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C10" s="10">
-        <v>3.4860000000000002</v>
+        <v>117.526</v>
       </c>
       <c r="D10" s="10">
-        <v>-0.34300000000000003</v>
+        <v>256.97500000000002</v>
       </c>
       <c r="E10" s="10">
-        <v>14.234</v>
+        <v>365.16399999999999</v>
       </c>
       <c r="F10" s="15">
-        <v>53.137999999999998</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
+        <v>438.346</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -14264,111 +14279,115 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="S10" s="10">
+        <v>40.801000000000002</v>
+      </c>
       <c r="T10" s="10"/>
       <c r="U10" s="10"/>
-      <c r="V10" s="15"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="15">
+        <v>243.477</v>
+      </c>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" s="11">
-        <f>C9+SUM(C10:C10)</f>
-        <v>-59.070999999999991</v>
+        <f t="shared" ref="C11:H11" si="1">C5-SUM(C7:C10)</f>
+        <v>-62.556999999999988</v>
       </c>
       <c r="D11" s="11">
-        <f>D9+SUM(D10:D10)</f>
-        <v>-127.55600000000003</v>
+        <f t="shared" si="1"/>
+        <v>-127.21300000000002</v>
       </c>
       <c r="E11" s="11">
-        <f>E9+SUM(E10:E10)</f>
-        <v>-157.92800000000003</v>
+        <f t="shared" si="1"/>
+        <v>-172.16200000000003</v>
       </c>
       <c r="F11" s="14">
-        <f>F9+SUM(F10:F10)</f>
-        <v>-87.023000000000053</v>
+        <f t="shared" si="1"/>
+        <v>-140.16100000000006</v>
       </c>
       <c r="G11" s="11">
-        <f>G9+SUM(G10:G10)</f>
+        <f t="shared" si="1"/>
         <v>985.98</v>
       </c>
       <c r="H11" s="11">
-        <f>H9+SUM(H10:H10)</f>
+        <f t="shared" si="1"/>
         <v>1210</v>
       </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="11">
-        <f>K9+SUM(K10:K10)</f>
+        <f t="shared" ref="K11:X11" si="2">K5-SUM(K7:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>L9+SUM(L10:L10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>M9+SUM(M10:M10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N11" s="11">
-        <f>N9+SUM(N10:N10)</f>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O11" s="11">
-        <f>O9+SUM(O10:O10)</f>
+      <c r="P11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="11">
-        <f>P9+SUM(P10:P10)</f>
+      <c r="Q11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="11">
-        <f>Q9+SUM(Q10:Q10)</f>
+      <c r="R11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <f>R9+SUM(R10:R10)</f>
+      <c r="S11" s="11">
+        <f t="shared" si="2"/>
+        <v>-70.641999999999996</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S11" s="11">
-        <f>S9+SUM(S10:S10)</f>
+      <c r="U11" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="11">
-        <f>T9+SUM(T10:T10)</f>
+      <c r="V11" s="152">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U11" s="11">
-        <f>U9+SUM(U10:U10)</f>
-        <v>0</v>
-      </c>
-      <c r="V11" s="14">
-        <f>V9+SUM(V10:V10)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <f>W9+SUM(W10:W10)</f>
-        <v>0</v>
+      <c r="W11" s="14">
+        <f t="shared" si="2"/>
+        <v>-589.21799999999996</v>
       </c>
       <c r="X11" s="11">
-        <f>X9+SUM(X10:X10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10">
-        <v>0.10199999999999999</v>
+        <v>3.4860000000000002</v>
       </c>
       <c r="D12" s="10">
-        <v>0.34</v>
+        <v>-0.34300000000000003</v>
       </c>
       <c r="E12" s="10">
-        <v>0.622</v>
+        <v>14.234</v>
       </c>
       <c r="F12" s="15">
-        <v>3.8010000000000002</v>
+        <v>53.137999999999998</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -14380,105 +14399,113 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
+      <c r="S12" s="10">
+        <v>10.724</v>
+      </c>
       <c r="T12" s="10"/>
       <c r="U12" s="10"/>
-      <c r="V12" s="15"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="15">
+        <v>14.554</v>
+      </c>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="11">
-        <f>C11-SUM(C12:C12)</f>
-        <v>-59.172999999999988</v>
+        <f t="shared" ref="C13:H13" si="3">C11+SUM(C12:C12)</f>
+        <v>-59.070999999999991</v>
       </c>
       <c r="D13" s="11">
-        <f>D11-SUM(D12:D12)</f>
-        <v>-127.89600000000003</v>
+        <f t="shared" si="3"/>
+        <v>-127.55600000000003</v>
       </c>
       <c r="E13" s="11">
-        <f>E11-SUM(E12:E12)</f>
-        <v>-158.55000000000004</v>
+        <f t="shared" si="3"/>
+        <v>-157.92800000000003</v>
       </c>
       <c r="F13" s="14">
-        <f>F11-SUM(F12:F12)</f>
-        <v>-90.824000000000055</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+        <f t="shared" si="3"/>
+        <v>-87.023000000000053</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="3"/>
+        <v>985.98</v>
+      </c>
+      <c r="H13" s="11">
+        <f t="shared" si="3"/>
+        <v>1210</v>
+      </c>
       <c r="K13" s="11">
-        <f>K11-SUM(K12:K12)</f>
+        <f t="shared" ref="K13:X13" si="4">K11+SUM(K12:K12)</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>L11-SUM(L12:L12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>M11-SUM(M12:M12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N13" s="11">
-        <f>N11-SUM(N12:N12)</f>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O13" s="11">
-        <f>O11-SUM(O12:O12)</f>
+      <c r="P13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
-        <f>P11-SUM(P12:P12)</f>
+      <c r="Q13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <f>Q11-SUM(Q12:Q12)</f>
+      <c r="R13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <f>R11-SUM(R12:R12)</f>
+      <c r="S13" s="11">
+        <f t="shared" si="4"/>
+        <v>-59.917999999999992</v>
+      </c>
+      <c r="T13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S13" s="11">
-        <f>S11-SUM(S12:S12)</f>
+      <c r="U13" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="11">
-        <f>T11-SUM(T12:T12)</f>
+      <c r="V13" s="152">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="11">
-        <f>U11-SUM(U12:U12)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <f>V11-SUM(V12:V12)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
-        <f>W11-SUM(W12:W12)</f>
-        <v>0</v>
+      <c r="W13" s="14">
+        <f t="shared" si="4"/>
+        <v>-574.66399999999999</v>
       </c>
       <c r="X13" s="11">
-        <f>X11-SUM(X12:X12)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10">
-        <v>158.98356999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D14" s="10">
-        <v>158.98356999999999</v>
+        <v>0.34</v>
       </c>
       <c r="E14" s="10">
-        <v>158.98356999999999</v>
+        <v>0.622</v>
       </c>
       <c r="F14" s="15">
-        <v>158.98356999999999</v>
+        <v>3.8010000000000002</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -14490,767 +14517,915 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="10">
+        <v>0.98799999999999999</v>
+      </c>
       <c r="T14" s="10"/>
       <c r="U14" s="10"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="15">
+        <v>0.36499999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11">
+        <f>C13-SUM(C14:C14)</f>
+        <v>-59.172999999999988</v>
+      </c>
+      <c r="D15" s="11">
+        <f>D13-SUM(D14:D14)</f>
+        <v>-127.89600000000003</v>
+      </c>
+      <c r="E15" s="11">
+        <f>E13-SUM(E14:E14)</f>
+        <v>-158.55000000000004</v>
+      </c>
+      <c r="F15" s="14">
+        <f>F13-SUM(F14:F14)</f>
+        <v>-90.824000000000055</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="K15" s="11">
+        <f t="shared" ref="K15:X15" si="5">K13-SUM(K14:K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="11">
+        <f t="shared" si="5"/>
+        <v>-60.905999999999992</v>
+      </c>
+      <c r="T15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="5"/>
+        <v>-575.029</v>
+      </c>
+      <c r="X15" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>158.98356999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>158.98356999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>158.98356999999999</v>
+      </c>
+      <c r="F16" s="15">
+        <v>158.98356999999999</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="151">
+        <v>58.115000000000002</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="151"/>
+      <c r="W16" s="15">
+        <v>70.239999999999995</v>
+      </c>
+      <c r="X16" s="10"/>
+    </row>
+    <row r="17" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="2">
-        <f>C13/C14</f>
+      <c r="C17" s="2">
+        <f>C15/C16</f>
         <v>-0.37219569292600485</v>
       </c>
-      <c r="D15" s="2">
-        <f>D13/D14</f>
+      <c r="D17" s="2">
+        <f>D15/D16</f>
         <v>-0.80446048607412723</v>
       </c>
-      <c r="E15" s="2">
-        <f>E13/E14</f>
+      <c r="E17" s="2">
+        <f>E15/E16</f>
         <v>-0.99727286284991623</v>
       </c>
-      <c r="F15" s="55">
-        <f>F13/F14</f>
+      <c r="F17" s="55">
+        <f>F15/F16</f>
         <v>-0.57127915796582041</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-    </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="153" t="e">
+        <f t="shared" ref="O17:V17" si="6">O15/O16</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" s="153">
+        <f t="shared" si="6"/>
+        <v>-1.0480254667469671</v>
+      </c>
+      <c r="T17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" s="153" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W17" s="49">
+        <f>W15/W16</f>
+        <v>-8.1866315489749439</v>
+      </c>
+      <c r="X17" s="50"/>
+    </row>
+    <row r="18" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="44">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="44">
         <v>-6.57</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H18" s="45">
         <v>-1.18</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="155">
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="158">
         <v>-8.7100000000000009</v>
       </c>
-      <c r="X16" s="155">
+      <c r="X18" s="130">
         <v>-0.51</v>
       </c>
     </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
-        <f>1-C5/C3</f>
+      <c r="C19" s="3">
+        <f>1-C7/C5</f>
         <v>0.7596152165935659</v>
       </c>
-      <c r="D17" s="3">
-        <f>1-D5/D3</f>
+      <c r="D19" s="3">
+        <f>1-D7/D5</f>
         <v>0.85035552549307503</v>
       </c>
-      <c r="E17" s="3">
-        <f>1-E5/E3</f>
+      <c r="E19" s="3">
+        <f>1-E7/E5</f>
         <v>0.84280959530584176</v>
       </c>
-      <c r="F17" s="6">
-        <f>1-F5/F3</f>
+      <c r="F19" s="6">
+        <f>1-F7/F5</f>
         <v>0.86193159699463573</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="K17" s="3" t="e">
-        <f>1-K5/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="3" t="e">
-        <f>1-L5/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M17" s="3" t="e">
-        <f>1-M5/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="3" t="e">
-        <f>1-N5/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" s="3" t="e">
-        <f>1-O5/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" s="3" t="e">
-        <f>1-P5/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" s="3" t="e">
-        <f>1-Q5/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R17" s="3" t="e">
-        <f>1-R5/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S17" s="3" t="e">
-        <f>1-S5/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T17" s="3" t="e">
-        <f>1-T5/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U17" s="3" t="e">
-        <f>1-U5/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V17" s="6" t="e">
-        <f>1-V5/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="K19" s="3" t="e">
+        <f t="shared" ref="K19:W19" si="7">1-K7/K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" s="3">
+        <f t="shared" si="7"/>
+        <v>0.83590103848503361</v>
+      </c>
+      <c r="T19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" s="3" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" s="40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="7"/>
+        <v>0.88635390946502057</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4">
-        <f>C13/C3</f>
+      <c r="C20" s="4">
+        <f>C15/C5</f>
         <v>-0.25850123193597424</v>
       </c>
-      <c r="D18" s="4">
-        <f>D13/D3</f>
+      <c r="D20" s="4">
+        <f>D15/D5</f>
         <v>-0.26374877298336213</v>
       </c>
-      <c r="E18" s="4">
-        <f>E13/E3</f>
+      <c r="E20" s="4">
+        <f>E15/E5</f>
         <v>-0.23781275264323892</v>
       </c>
-      <c r="F18" s="7">
-        <f>F13/F3</f>
+      <c r="F20" s="7">
+        <f>F15/F5</f>
         <v>-0.11296109966182818</v>
       </c>
-      <c r="G18" s="47">
-        <f>G13/G4</f>
+      <c r="G20" s="47">
+        <f>G15/G6</f>
         <v>0</v>
       </c>
-      <c r="H18" s="47">
-        <f>H13/H4</f>
+      <c r="H20" s="47">
+        <f>H15/H6</f>
         <v>0</v>
       </c>
-      <c r="K18" s="4" t="e">
-        <f>K13/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="4" t="e">
-        <f>L13/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M18" s="4" t="e">
-        <f>M13/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="4" t="e">
-        <f>N13/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" s="4" t="e">
-        <f>O13/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" s="4" t="e">
-        <f>P13/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" s="4" t="e">
-        <f>Q13/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R18" s="4" t="e">
-        <f>R13/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S18" s="4" t="e">
-        <f>S13/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="4" t="e">
-        <f>T13/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U18" s="4" t="e">
-        <f>U13/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V18" s="7" t="e">
-        <f>V13/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="K20" s="4" t="e">
+        <f t="shared" ref="K20:W20" si="8">K15/K5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="8"/>
+        <v>-0.37205864386072079</v>
+      </c>
+      <c r="T20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" s="4" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" s="154" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W20" s="7">
+        <f t="shared" si="8"/>
+        <v>-2.3663744855967077</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <f>D3/C3-1</f>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <f>D5/C5-1</f>
         <v>1.118388173414647</v>
       </c>
-      <c r="E19" s="40">
-        <f>E3/D3-1</f>
+      <c r="E21" s="40">
+        <f>E5/D5-1</f>
         <v>0.37487936054904369</v>
       </c>
-      <c r="F19" s="6">
-        <f>F3/E3-1</f>
+      <c r="F21" s="6">
+        <f>F5/E5-1</f>
         <v>0.205981391958314</v>
       </c>
-      <c r="G19" s="48">
-        <f>G4/F3-1</f>
+      <c r="G21" s="48">
+        <f>G6/F5-1</f>
         <v>0.22629905140237483</v>
       </c>
-      <c r="H19" s="48">
-        <f>H4/G4-1</f>
+      <c r="H21" s="48">
+        <f>H6/G6-1</f>
         <v>0.22720541998823496</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4" t="e">
-        <f>O3/K3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" s="4" t="e">
-        <f>P3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" s="4" t="e">
-        <f>Q3/M3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R19" s="4" t="e">
-        <f>R3/N3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S19" s="4" t="e">
-        <f>S3/O3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T19" s="4" t="e">
-        <f>T3/P3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="4" t="e">
-        <f>U3/Q3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="7" t="e">
-        <f>V3/R3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="37" t="e">
-        <f>W4/S3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X19" s="37" t="e">
-        <f>X4/T3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="e">
+        <f t="shared" ref="O21:V21" si="9">O5/K5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="4" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="154" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="159">
+        <f>W5/S5-1</f>
+        <v>0.48442272449602952</v>
+      </c>
+      <c r="X21" s="37" t="e">
+        <f>X6/T5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" s="37" t="e">
+        <f>Y6/U5-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="153">
-        <f t="shared" ref="C20:E20" si="0">C6/C$3</f>
+      <c r="C22" s="4">
+        <f t="shared" ref="C22:E22" si="10">C8/C$5</f>
         <v>0.32937249899522952</v>
       </c>
-      <c r="D20" s="153">
-        <f t="shared" si="0"/>
+      <c r="D22" s="4">
+        <f t="shared" si="10"/>
         <v>0.2843110971797177</v>
       </c>
-      <c r="E20" s="153">
-        <f t="shared" si="0"/>
+      <c r="E22" s="4">
+        <f t="shared" si="10"/>
         <v>0.33759961361989854</v>
       </c>
-      <c r="F20" s="7">
-        <f>F6/F$3</f>
+      <c r="F22" s="7">
+        <f>F8/F$5</f>
         <v>0.28627698752159436</v>
-      </c>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="K20" s="4" t="e">
-        <f>K6/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" s="4" t="e">
-        <f>L6/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M20" s="4" t="e">
-        <f>M6/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N20" s="4" t="e">
-        <f>N6/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="4" t="e">
-        <f>O6/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" s="4" t="e">
-        <f>P6/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" s="4" t="e">
-        <f>Q6/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R20" s="4" t="e">
-        <f>R6/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S20" s="4" t="e">
-        <f>S6/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f>T6/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="4" t="e">
-        <f>U6/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="7" t="e">
-        <f>V6/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="4"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="153">
-        <f>C7/C$3</f>
-        <v>0.19010694252712881</v>
-      </c>
-      <c r="D21" s="153">
-        <f t="shared" ref="D21:E21" si="1">D7/D$3</f>
-        <v>0.29844756617640994</v>
-      </c>
-      <c r="E21" s="153">
-        <f t="shared" si="1"/>
-        <v>0.21572189032264838</v>
-      </c>
-      <c r="F21" s="7">
-        <f>F7/F$3</f>
-        <v>0.20479112071828254</v>
-      </c>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="K21" s="4" t="e">
-        <f>K7/K3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="4" t="e">
-        <f>L7/L3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="4" t="e">
-        <f>M7/M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="4" t="e">
-        <f>N7/N3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" s="4" t="e">
-        <f>O7/O3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" s="4" t="e">
-        <f>P7/P3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" s="4" t="e">
-        <f>Q7/Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="4" t="e">
-        <f>R7/R3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="4" t="e">
-        <f>S7/S3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="4" t="e">
-        <f>T7/T3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U21" s="4" t="e">
-        <f>U7/U3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="7" t="e">
-        <f>V7/V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" s="4"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="153">
-        <f>C8/C$3</f>
-        <v>0.5134202386985165</v>
-      </c>
-      <c r="D22" s="153">
-        <f>D8/D$3</f>
-        <v>0.52993714375273249</v>
-      </c>
-      <c r="E22" s="153">
-        <f>E8/E$3</f>
-        <v>0.54771779253368447</v>
-      </c>
-      <c r="F22" s="7">
-        <f>F8/F$3</f>
-        <v>0.54518680296357469</v>
       </c>
       <c r="G22" s="123"/>
       <c r="H22" s="123"/>
       <c r="K22" s="4" t="e">
-        <f>#REF!/K3</f>
-        <v>#REF!</v>
+        <f t="shared" ref="K22:Y22" si="11">K8/K$5</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="L22" s="4" t="e">
-        <f>#REF!/L3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="M22" s="4" t="e">
-        <f>#REF!/M3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f>#REF!/N3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="O22" s="4" t="e">
-        <f>#REF!/O3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="P22" s="4" t="e">
-        <f>#REF!/P3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q22" s="4" t="e">
-        <f>#REF!/Q3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="R22" s="4" t="e">
-        <f>#REF!/R3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S22" s="4" t="e">
-        <f>#REF!/S3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="11"/>
+        <v>0.66442883323152113</v>
       </c>
       <c r="T22" s="4" t="e">
-        <f>#REF!/T3</f>
-        <v>#REF!</v>
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="U22" s="4" t="e">
-        <f>#REF!/U3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V22" s="7" t="e">
-        <f>#REF!/V3</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W22" s="4"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W22" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7984773662551439</v>
+      </c>
+      <c r="X22" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y22" s="4" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="C23" s="4">
+        <f>C9/C$5</f>
+        <v>0.19010694252712881</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ref="D23:E23" si="12">D9/D$5</f>
+        <v>0.29844756617640994</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.21572189032264838</v>
+      </c>
+      <c r="F23" s="7">
+        <f>F9/F$5</f>
+        <v>0.20479112071828254</v>
+      </c>
       <c r="G23" s="123"/>
       <c r="H23" s="123"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="4"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K23" s="4" t="e">
+        <f t="shared" ref="K23:Y23" si="13">K9/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="13"/>
+        <v>0.35376298106292003</v>
+      </c>
+      <c r="T23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W23" s="7">
+        <f t="shared" si="13"/>
+        <v>0.51067901234567903</v>
+      </c>
+      <c r="X23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y23" s="4" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="C24" s="4">
+        <f>C10/C$5</f>
+        <v>0.5134202386985165</v>
+      </c>
+      <c r="D24" s="4">
+        <f>D10/D$5</f>
+        <v>0.52993714375273249</v>
+      </c>
+      <c r="E24" s="4">
+        <f>E10/E$5</f>
+        <v>0.54771779253368447</v>
+      </c>
+      <c r="F24" s="7">
+        <f>F10/F$5</f>
+        <v>0.54518680296357469</v>
+      </c>
       <c r="G24" s="123"/>
       <c r="H24" s="123"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="4"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="K24" s="4" t="e">
+        <f t="shared" ref="K24:Y24" si="14">K10/K$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="14"/>
+        <v>0.24924251679902262</v>
+      </c>
+      <c r="T24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0019629629629629</v>
+      </c>
+      <c r="X24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" s="4" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3">
-        <f>-(D13/C13-1)</f>
-        <v>-1.1613911750291526</v>
-      </c>
-      <c r="E25" s="40">
-        <f>E13/D13-1</f>
-        <v>0.23967911428035271</v>
-      </c>
-      <c r="F25" s="6">
-        <f>F13/E13-1</f>
-        <v>-0.42715862503941959</v>
-      </c>
-      <c r="G25" s="58">
-        <f>G15/F15-1</f>
-        <v>-1</v>
-      </c>
-      <c r="H25" s="58" t="e">
-        <f>H15/G15-1</f>
-        <v>#DIV/0!</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
-      <c r="O25" s="4" t="e">
-        <f t="shared" ref="O25:W25" si="2">O13/K13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T25" s="4" t="e">
-        <f>T13/P13-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V25" s="7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W25" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="7">
+        <f>W3/S3-1</f>
+        <v>0.52986217457886697</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="154"/>
+      <c r="W26" s="7">
+        <f>W4/S4-1</f>
+        <v>0.30513595166163143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3">
+        <f>-(D15/C15-1)</f>
+        <v>-1.1613911750291526</v>
+      </c>
+      <c r="E27" s="40">
+        <f>E15/D15-1</f>
+        <v>0.23967911428035271</v>
+      </c>
+      <c r="F27" s="6">
+        <f>F15/E15-1</f>
+        <v>-0.42715862503941959</v>
+      </c>
+      <c r="G27" s="58">
+        <f>G17/F17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="H27" s="58" t="e">
+        <f>H17/G17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4" t="e">
+        <f t="shared" ref="O27:W27" si="15">O15/K15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" s="4" t="e">
+        <f>T15/P15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" s="4" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" s="154" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W27" s="7">
+        <f t="shared" si="15"/>
+        <v>8.4412537352641781</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="152">
-        <f>C29+C30-C48-C52-C54</f>
+      <c r="C30" s="11">
+        <f>C31+C32-C50-C54-C56</f>
         <v>0</v>
       </c>
-      <c r="D28" s="152">
-        <f>D29+D30-D48-D52-D54</f>
+      <c r="D30" s="11">
+        <f>D31+D32-D50-D54-D56</f>
         <v>-453.81999999999994</v>
       </c>
-      <c r="E28" s="152">
-        <f>E29+E30-E48-E52-E54</f>
+      <c r="E30" s="11">
+        <f>E31+E32-E50-E54-E56</f>
         <v>-606.43999999999983</v>
       </c>
-      <c r="F28" s="14">
-        <f>F29+F30-F48-F52-F54</f>
+      <c r="F30" s="14">
+        <f>F31+F32-F50-F54-F56</f>
         <v>-666.11699999999996</v>
       </c>
-      <c r="K28" s="11">
-        <f t="shared" ref="K28" si="3">K29+K31-K45-K46-K54</f>
+      <c r="K30" s="11">
+        <f t="shared" ref="K30:X30" si="16">K31+K32-K50-K54-K56</f>
         <v>0</v>
       </c>
-      <c r="L28" s="11">
-        <f t="shared" ref="L28" si="4">L29+L31-L45-L46-L54</f>
+      <c r="L30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M28" s="11">
-        <f t="shared" ref="M28" si="5">M29+M31-M45-M46-M54</f>
+      <c r="M30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="N28" s="11">
-        <f t="shared" ref="N28" si="6">N29+N31-N45-N46-N54</f>
+      <c r="N30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="O28" s="11">
-        <f t="shared" ref="O28" si="7">O29+O31-O45-O46-O54</f>
+      <c r="O30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="P28" s="11">
-        <f t="shared" ref="P28" si="8">P29+P31-P45-P46-P54</f>
+      <c r="P30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="11">
-        <f t="shared" ref="Q28" si="9">Q29+Q31-Q45-Q46-Q54</f>
+      <c r="Q30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="R28" s="11">
-        <f t="shared" ref="R28" si="10">R29+R31-R45-R46-R54</f>
+      <c r="R30" s="11">
+        <f t="shared" si="16"/>
+        <v>-606.43999999999983</v>
+      </c>
+      <c r="S30" s="11">
+        <f t="shared" si="16"/>
+        <v>1191.0820000000001</v>
+      </c>
+      <c r="T30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="S28" s="11">
-        <f t="shared" ref="S28" si="11">S29+S31-S45-S46-S54</f>
+      <c r="U30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="T28" s="11">
-        <f t="shared" ref="T28" si="12">T29+T31-T45-T46-T54</f>
+      <c r="V30" s="11">
+        <f t="shared" si="16"/>
+        <v>-666.11699999999996</v>
+      </c>
+      <c r="W30" s="14">
+        <f t="shared" si="16"/>
+        <v>1649.5149999999999</v>
+      </c>
+      <c r="X30" s="11">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="U28" s="11">
-        <f t="shared" ref="U28" si="13">U29+U31-U45-U46-U54</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="14">
-        <f t="shared" ref="V28" si="14">V29+V31-V45-V46-V54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>24</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10">
-        <v>1337.798</v>
-      </c>
-      <c r="E29" s="10">
-        <v>435.81</v>
-      </c>
-      <c r="F29" s="15">
-        <v>401.17599999999999</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>191</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10">
-        <v>75.334000000000003</v>
-      </c>
-      <c r="E30" s="10">
-        <v>830.73400000000004</v>
-      </c>
-      <c r="F30" s="15">
-        <v>811.94600000000003</v>
-      </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="15"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>25</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
-        <v>161.67500000000001</v>
+        <v>1337.798</v>
       </c>
       <c r="E31" s="10">
-        <v>191.98699999999999</v>
+        <v>435.81</v>
       </c>
       <c r="F31" s="15">
-        <v>245.279</v>
+        <v>401.17599999999999</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -15259,25 +15434,37 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
+      <c r="R31" s="10">
+        <f>E31</f>
+        <v>435.81</v>
+      </c>
+      <c r="S31" s="10">
+        <v>401.17599999999999</v>
+      </c>
       <c r="T31" s="10"/>
       <c r="U31" s="10"/>
-      <c r="V31" s="15"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="V31" s="151">
+        <f>F31</f>
+        <v>401.17599999999999</v>
+      </c>
+      <c r="W31" s="15">
+        <v>968.51499999999999</v>
+      </c>
+      <c r="X31" s="151"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
-        <v>0.308</v>
+        <v>75.334000000000003</v>
       </c>
       <c r="E32" s="10">
-        <v>2.819</v>
+        <v>830.73400000000004</v>
       </c>
       <c r="F32" s="15">
-        <v>3.0710000000000002</v>
+        <v>811.94600000000003</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -15286,25 +15473,37 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
+      <c r="R32" s="10">
+        <f t="shared" ref="R32:R37" si="17">E32</f>
+        <v>830.73400000000004</v>
+      </c>
+      <c r="S32" s="10">
+        <v>811.94600000000003</v>
+      </c>
       <c r="T32" s="10"/>
       <c r="U32" s="10"/>
-      <c r="V32" s="15"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V32" s="151">
+        <f t="shared" ref="V32:V37" si="18">F32</f>
+        <v>811.94600000000003</v>
+      </c>
+      <c r="W32" s="15">
+        <v>701.83500000000004</v>
+      </c>
+      <c r="X32" s="151"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
-        <v>0.46400000000000002</v>
+        <v>161.67500000000001</v>
       </c>
       <c r="E33" s="10">
-        <v>4.2750000000000004</v>
+        <v>191.98699999999999</v>
       </c>
       <c r="F33" s="15">
-        <v>4.6950000000000003</v>
+        <v>245.279</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -15313,25 +15512,37 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
+      <c r="R33" s="10">
+        <f t="shared" si="17"/>
+        <v>191.98699999999999</v>
+      </c>
+      <c r="S33" s="10">
+        <v>245.279</v>
+      </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
-      <c r="V33" s="15"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="151">
+        <f t="shared" si="18"/>
+        <v>245.279</v>
+      </c>
+      <c r="W33" s="15">
+        <v>215.30699999999999</v>
+      </c>
+      <c r="X33" s="151"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
-        <v>24.658000000000001</v>
+        <v>0.308</v>
       </c>
       <c r="E34" s="10">
-        <v>17.053000000000001</v>
+        <v>2.819</v>
       </c>
       <c r="F34" s="15">
-        <v>11.93</v>
+        <v>3.0710000000000002</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -15340,25 +15551,33 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
+      <c r="R34" s="10">
+        <f t="shared" si="17"/>
+        <v>2.819</v>
+      </c>
       <c r="S34" s="10"/>
       <c r="T34" s="10"/>
       <c r="U34" s="10"/>
-      <c r="V34" s="15"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V34" s="151">
+        <f t="shared" si="18"/>
+        <v>3.0710000000000002</v>
+      </c>
+      <c r="W34" s="15"/>
+      <c r="X34" s="151"/>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <v>0.63500000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="E35" s="10">
-        <v>1.2490000000000001</v>
+        <v>4.2750000000000004</v>
       </c>
       <c r="F35" s="15">
-        <v>1.59</v>
+        <v>4.6950000000000003</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -15367,94 +15586,72 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
+      <c r="R35" s="10">
+        <f t="shared" si="17"/>
+        <v>4.2750000000000004</v>
+      </c>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
       <c r="U35" s="10"/>
-      <c r="V35" s="15"/>
-    </row>
-    <row r="36" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="11">
-        <f>SUM(C29:C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="11">
-        <f>SUM(D29:D35)</f>
-        <v>1600.8719999999998</v>
-      </c>
-      <c r="E36" s="11">
-        <f t="shared" ref="E36:F36" si="15">SUM(E29:E35)</f>
-        <v>1483.9270000000004</v>
-      </c>
-      <c r="F36" s="14">
-        <f t="shared" si="15"/>
-        <v>1479.6869999999999</v>
-      </c>
-      <c r="K36" s="11">
-        <f t="shared" ref="K36:V36" si="16">SUM(K29:K35)</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="14">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V35" s="151">
+        <f t="shared" si="18"/>
+        <v>4.6950000000000003</v>
+      </c>
+      <c r="W35" s="15"/>
+      <c r="X35" s="151"/>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="E36" s="10">
+        <v>17.053000000000001</v>
+      </c>
+      <c r="F36" s="15">
+        <v>11.93</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10">
+        <f t="shared" si="17"/>
+        <v>17.053000000000001</v>
+      </c>
+      <c r="S36" s="10">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="151">
+        <f t="shared" si="18"/>
+        <v>11.93</v>
+      </c>
+      <c r="W36" s="15">
+        <v>34.368000000000002</v>
+      </c>
+      <c r="X36" s="151"/>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
-        <v>22.832000000000001</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="E37" s="10">
-        <v>30.544</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="F37" s="15">
-        <v>38.954000000000001</v>
+        <v>1.59</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -15463,52 +15660,110 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="R37" s="10">
+        <f t="shared" si="17"/>
+        <v>1.2490000000000001</v>
+      </c>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
-      <c r="V37" s="15"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10">
-        <v>6.4710000000000001</v>
-      </c>
-      <c r="E38" s="10">
-        <v>26.298999999999999</v>
-      </c>
-      <c r="F38" s="15">
-        <v>26.298999999999999</v>
-      </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="15"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V37" s="151">
+        <f t="shared" si="18"/>
+        <v>1.59</v>
+      </c>
+      <c r="W37" s="15"/>
+      <c r="X37" s="151"/>
+    </row>
+    <row r="38" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="11">
+        <f>SUM(C31:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <f>SUM(D31:D37)</f>
+        <v>1600.8719999999998</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38:F38" si="19">SUM(E31:E37)</f>
+        <v>1483.9270000000004</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="19"/>
+        <v>1479.6869999999999</v>
+      </c>
+      <c r="K38" s="11">
+        <f t="shared" ref="K38:V38" si="20">SUM(K31:K37)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="11">
+        <f t="shared" si="20"/>
+        <v>1483.9270000000004</v>
+      </c>
+      <c r="S38" s="11">
+        <f t="shared" si="20"/>
+        <v>1479.6870000000001</v>
+      </c>
+      <c r="T38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="11">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="152">
+        <f t="shared" si="20"/>
+        <v>1479.6869999999999</v>
+      </c>
+      <c r="W38" s="14">
+        <f t="shared" ref="W38:X38" si="21">SUM(W31:W37)</f>
+        <v>1920.0249999999999</v>
+      </c>
+      <c r="X38" s="152">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>5.6619999999999999</v>
+        <v>22.832000000000001</v>
       </c>
       <c r="E39" s="10">
-        <v>41.237000000000002</v>
+        <v>30.544</v>
       </c>
       <c r="F39" s="15">
-        <v>32.146999999999998</v>
+        <v>38.954000000000001</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -15517,22 +15772,38 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
+      <c r="R39" s="10">
+        <f t="shared" ref="R39:R45" si="22">E39</f>
+        <v>30.544</v>
+      </c>
+      <c r="S39" s="10">
+        <v>14.946</v>
+      </c>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
-      <c r="V39" s="15"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V39" s="151">
+        <f t="shared" ref="V39:V45" si="23">F39</f>
+        <v>38.954000000000001</v>
+      </c>
+      <c r="W39" s="15">
+        <v>14.385</v>
+      </c>
+      <c r="X39" s="151"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>194</v>
+        <v>27</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="10">
+        <v>6.4710000000000001</v>
+      </c>
       <c r="E40" s="10">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15"/>
+        <v>26.298999999999999</v>
+      </c>
+      <c r="F40" s="15">
+        <v>26.298999999999999</v>
+      </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -15540,25 +15811,37 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
+      <c r="R40" s="10">
+        <f t="shared" si="22"/>
+        <v>26.298999999999999</v>
+      </c>
+      <c r="S40" s="10">
+        <v>26.298999999999999</v>
+      </c>
       <c r="T40" s="10"/>
       <c r="U40" s="10"/>
-      <c r="V40" s="15"/>
-    </row>
-    <row r="41" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V40" s="151">
+        <f t="shared" si="23"/>
+        <v>26.298999999999999</v>
+      </c>
+      <c r="W40" s="15">
+        <v>26.298999999999999</v>
+      </c>
+      <c r="X40" s="151"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <v>6.2519999999999998</v>
+        <v>5.6619999999999999</v>
       </c>
       <c r="E41" s="10">
-        <v>16.847999999999999</v>
+        <v>41.237000000000002</v>
       </c>
       <c r="F41" s="15">
-        <v>16.484000000000002</v>
+        <v>32.146999999999998</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -15567,26 +15850,34 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="R41" s="10">
+        <f t="shared" si="22"/>
+        <v>41.237000000000002</v>
+      </c>
+      <c r="S41" s="10">
+        <v>32.146999999999998</v>
+      </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10"/>
-      <c r="V41" s="15"/>
-    </row>
-    <row r="42" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V41" s="151">
+        <f t="shared" si="23"/>
+        <v>32.146999999999998</v>
+      </c>
+      <c r="W41" s="15">
+        <v>29.928000000000001</v>
+      </c>
+      <c r="X41" s="151"/>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="10">
-        <v>0.65900000000000003</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="F42" s="15">
-        <v>0.96199999999999997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F42" s="15"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
@@ -15594,25 +15885,33 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
+      <c r="R42" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="S42" s="10"/>
       <c r="T42" s="10"/>
       <c r="U42" s="10"/>
-      <c r="V42" s="15"/>
-    </row>
-    <row r="43" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="V42" s="151">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="15"/>
+      <c r="X42" s="151"/>
+    </row>
+    <row r="43" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
-        <v>2.3610000000000002</v>
+        <v>6.2519999999999998</v>
       </c>
       <c r="E43" s="10">
-        <v>1.9339999999999999</v>
+        <v>16.847999999999999</v>
       </c>
       <c r="F43" s="15">
-        <v>1.9339999999999999</v>
+        <v>16.484000000000002</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -15621,94 +15920,72 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
+      <c r="R43" s="10">
+        <f t="shared" si="22"/>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="S43" s="10">
+        <v>24.007999999999999</v>
+      </c>
       <c r="T43" s="10"/>
       <c r="U43" s="10"/>
-      <c r="V43" s="15"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C44" s="11">
-        <f>SUM(C36:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="11">
-        <f>SUM(D36:D43)</f>
-        <v>1645.1090000000002</v>
-      </c>
-      <c r="E44" s="11">
-        <f>SUM(E36:E43)</f>
-        <v>1601.7510000000004</v>
-      </c>
-      <c r="F44" s="14">
-        <f>SUM(F36:F43)</f>
-        <v>1596.4669999999996</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" ref="K44:V44" si="17">SUM(K36:K43)</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="O44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V43" s="151">
+        <f t="shared" si="23"/>
+        <v>16.484000000000002</v>
+      </c>
+      <c r="W43" s="15">
+        <v>22.754000000000001</v>
+      </c>
+      <c r="X43" s="151"/>
+    </row>
+    <row r="44" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="F44" s="15">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10">
+        <f t="shared" si="22"/>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="151">
+        <f t="shared" si="23"/>
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="W44" s="15"/>
+      <c r="X44" s="151"/>
+    </row>
+    <row r="45" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
-        <v>22.891999999999999</v>
+        <v>2.3610000000000002</v>
       </c>
       <c r="E45" s="10">
-        <v>32.944000000000003</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="F45" s="15">
-        <v>46.514000000000003</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -15717,52 +15994,114 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
+      <c r="R45" s="10">
+        <f t="shared" si="22"/>
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="S45" s="10">
+        <v>19.38</v>
+      </c>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="15"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>196</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10">
-        <v>8.01</v>
-      </c>
-      <c r="E46" s="10">
-        <v>21.013000000000002</v>
-      </c>
-      <c r="F46" s="15">
-        <v>26.74</v>
-      </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="15"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V45" s="151">
+        <f t="shared" si="23"/>
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="W45" s="15">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="X45" s="151"/>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="11">
+        <f>SUM(C38:C45)</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <f>SUM(D38:D45)</f>
+        <v>1645.1090000000002</v>
+      </c>
+      <c r="E46" s="11">
+        <f>SUM(E38:E45)</f>
+        <v>1601.7510000000004</v>
+      </c>
+      <c r="F46" s="14">
+        <f>SUM(F38:F45)</f>
+        <v>1596.4669999999996</v>
+      </c>
+      <c r="K46" s="11">
+        <f t="shared" ref="K46:V46" si="24">SUM(K38:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="11">
+        <f t="shared" si="24"/>
+        <v>1601.7510000000004</v>
+      </c>
+      <c r="S46" s="11">
+        <f t="shared" si="24"/>
+        <v>1596.4670000000001</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="152">
+        <f t="shared" si="24"/>
+        <v>1596.4669999999996</v>
+      </c>
+      <c r="W46" s="14">
+        <f t="shared" ref="W46:X46" si="25">SUM(W38:W45)</f>
+        <v>2015.896</v>
+      </c>
+      <c r="X46" s="152">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
-        <v>21.161000000000001</v>
+        <v>22.891999999999999</v>
       </c>
       <c r="E47" s="10">
-        <v>31.417999999999999</v>
-      </c>
-      <c r="F47" s="10">
-        <v>37.963999999999999</v>
+        <v>32.944000000000003</v>
+      </c>
+      <c r="F47" s="15">
+        <v>46.514000000000003</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -15771,25 +16110,37 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="R47" s="10">
+        <f t="shared" ref="R47:R52" si="26">E47</f>
+        <v>32.944000000000003</v>
+      </c>
+      <c r="S47" s="10">
+        <v>46.514000000000003</v>
+      </c>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="15"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="V47" s="151">
+        <f t="shared" ref="V47:V52" si="27">F47</f>
+        <v>46.514000000000003</v>
+      </c>
+      <c r="W47" s="15">
+        <v>45.378</v>
+      </c>
+      <c r="X47" s="151"/>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
-        <v>6.8540000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="E48" s="10">
-        <v>7.8019999999999996</v>
+        <v>21.013000000000002</v>
       </c>
       <c r="F48" s="15">
-        <v>3.7069999999999999</v>
+        <v>26.74</v>
       </c>
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
@@ -15798,25 +16149,37 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
+      <c r="R48" s="10">
+        <f t="shared" si="26"/>
+        <v>21.013000000000002</v>
+      </c>
+      <c r="S48" s="10">
+        <v>83.349000000000004</v>
+      </c>
       <c r="T48" s="10"/>
       <c r="U48" s="10"/>
-      <c r="V48" s="15"/>
+      <c r="V48" s="151">
+        <f t="shared" si="27"/>
+        <v>26.74</v>
+      </c>
+      <c r="W48" s="15">
+        <v>106.724</v>
+      </c>
+      <c r="X48" s="151"/>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>7.5330000000000004</v>
+        <v>21.161000000000001</v>
       </c>
       <c r="E49" s="10">
-        <v>8.02</v>
-      </c>
-      <c r="F49" s="15">
-        <v>7.25</v>
+        <v>31.417999999999999</v>
+      </c>
+      <c r="F49" s="10">
+        <v>37.963999999999999</v>
       </c>
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
@@ -15825,25 +16188,33 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="R49" s="10">
+        <f t="shared" si="26"/>
+        <v>31.417999999999999</v>
+      </c>
       <c r="S49" s="10"/>
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
-      <c r="V49" s="15"/>
+      <c r="V49" s="151">
+        <f t="shared" si="27"/>
+        <v>37.963999999999999</v>
+      </c>
+      <c r="W49" s="15"/>
+      <c r="X49" s="151"/>
     </row>
     <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
-        <v>4.0060000000000002</v>
+        <v>6.8540000000000001</v>
       </c>
       <c r="E50" s="10">
-        <v>5.26</v>
+        <v>7.8019999999999996</v>
       </c>
       <c r="F50" s="15">
-        <v>11.395</v>
+        <v>3.7069999999999999</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -15852,96 +16223,68 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
+      <c r="R50" s="10">
+        <f t="shared" si="26"/>
+        <v>7.8019999999999996</v>
+      </c>
       <c r="S50" s="10"/>
       <c r="T50" s="10"/>
       <c r="U50" s="10"/>
-      <c r="V50" s="15"/>
-    </row>
-    <row r="51" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="11">
-        <f>SUM(C45:C50)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="11">
-        <f>SUM(D45:D50)</f>
-        <v>70.456000000000003</v>
-      </c>
-      <c r="E51" s="11">
-        <f>SUM(E45:E50)</f>
-        <v>106.45699999999999</v>
-      </c>
-      <c r="F51" s="14">
-        <f>SUM(F45:F50)</f>
-        <v>133.57</v>
-      </c>
-      <c r="K51" s="11">
-        <f t="shared" ref="K51:V51" si="18">SUM(K45:K50)</f>
-        <v>0</v>
-      </c>
-      <c r="L51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="R51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="S51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="T51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V51" s="14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
+      <c r="V50" s="151">
+        <f t="shared" si="27"/>
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="W50" s="15"/>
+      <c r="X50" s="151"/>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="E51" s="10">
+        <v>8.02</v>
+      </c>
+      <c r="F51" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10">
+        <f t="shared" si="26"/>
+        <v>8.02</v>
+      </c>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="151">
+        <f t="shared" si="27"/>
+        <v>7.25</v>
+      </c>
+      <c r="W51" s="15"/>
+      <c r="X51" s="151"/>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
-        <v>6.6059999999999999</v>
+        <v>4.0060000000000002</v>
       </c>
       <c r="E52" s="10">
-        <v>11.69</v>
+        <v>5.26</v>
       </c>
       <c r="F52" s="15">
-        <v>22.04</v>
+        <v>11.395</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -15950,48 +16293,114 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
+      <c r="R52" s="10">
+        <f t="shared" si="26"/>
+        <v>5.26</v>
+      </c>
+      <c r="S52" s="10">
+        <v>3.7069999999999999</v>
+      </c>
       <c r="T52" s="10"/>
       <c r="U52" s="10"/>
-      <c r="V52" s="15"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>199</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10">
+      <c r="V52" s="151">
+        <f t="shared" si="27"/>
+        <v>11.395</v>
+      </c>
+      <c r="W52" s="15">
+        <v>4.383</v>
+      </c>
+      <c r="X52" s="151"/>
+    </row>
+    <row r="53" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="11">
+        <f>SUM(C47:C52)</f>
         <v>0</v>
       </c>
-      <c r="F53" s="15"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="15"/>
+      <c r="D53" s="11">
+        <f>SUM(D47:D52)</f>
+        <v>70.456000000000003</v>
+      </c>
+      <c r="E53" s="11">
+        <f>SUM(E47:E52)</f>
+        <v>106.45699999999999</v>
+      </c>
+      <c r="F53" s="14">
+        <f>SUM(F47:F52)</f>
+        <v>133.57</v>
+      </c>
+      <c r="K53" s="11">
+        <f t="shared" ref="K53:V53" si="28">SUM(K47:K52)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="11">
+        <f t="shared" si="28"/>
+        <v>106.45699999999999</v>
+      </c>
+      <c r="S53" s="11">
+        <f t="shared" si="28"/>
+        <v>133.57</v>
+      </c>
+      <c r="T53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="152">
+        <f t="shared" si="28"/>
+        <v>133.57</v>
+      </c>
+      <c r="W53" s="14">
+        <f t="shared" ref="W53:X53" si="29">SUM(W47:W52)</f>
+        <v>156.48500000000001</v>
+      </c>
+      <c r="X53" s="152">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
-        <v>1853.492</v>
+        <v>6.6059999999999999</v>
       </c>
       <c r="E54" s="10">
-        <v>1853.492</v>
+        <v>11.69</v>
       </c>
       <c r="F54" s="15">
-        <v>1853.492</v>
+        <v>22.04</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -16000,26 +16409,34 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
+      <c r="R54" s="10">
+        <f t="shared" ref="R54:R57" si="30">E54</f>
+        <v>11.69</v>
+      </c>
+      <c r="S54" s="10">
+        <v>22.04</v>
+      </c>
       <c r="T54" s="10"/>
       <c r="U54" s="10"/>
-      <c r="V54" s="15"/>
+      <c r="V54" s="151">
+        <f t="shared" ref="V54:V57" si="31">F54</f>
+        <v>22.04</v>
+      </c>
+      <c r="W54" s="15">
+        <v>20.835000000000001</v>
+      </c>
+      <c r="X54" s="151"/>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="C55" s="10"/>
-      <c r="D55" s="10">
-        <v>0.56799999999999995</v>
-      </c>
+      <c r="D55" s="10"/>
       <c r="E55" s="10">
-        <v>7.1360000000000001</v>
-      </c>
-      <c r="F55" s="15">
-        <v>0.28699999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F55" s="15"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
@@ -16027,167 +16444,268 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
+      <c r="R55" s="10">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10"/>
-      <c r="V55" s="15"/>
+      <c r="V55" s="151">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W55" s="15"/>
+      <c r="X55" s="151"/>
     </row>
     <row r="56" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="11">
-        <f>SUM(C51:C55)</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <f>SUM(D51:D55)</f>
-        <v>1931.1219999999998</v>
-      </c>
-      <c r="E56" s="11">
-        <f>SUM(E51:E55)</f>
-        <v>1978.7749999999999</v>
-      </c>
-      <c r="F56" s="14">
-        <f>SUM(F51:F55)</f>
-        <v>2009.3889999999999</v>
-      </c>
-      <c r="K56" s="11">
-        <f t="shared" ref="K56:V56" si="19">SUM(K51:K55)</f>
-        <v>0</v>
-      </c>
-      <c r="L56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="Q56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="R56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="S56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="T56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="U56" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="V56" s="14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10">
+        <v>1853.492</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1853.492</v>
+      </c>
+      <c r="F56" s="15">
+        <v>1853.492</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10">
+        <f t="shared" si="30"/>
+        <v>1853.492</v>
+      </c>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="151">
+        <f t="shared" si="31"/>
+        <v>1853.492</v>
+      </c>
+      <c r="W56" s="15"/>
+      <c r="X56" s="151"/>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="E57" s="10">
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="F57" s="15">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10">
+        <f t="shared" si="30"/>
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="S57" s="10">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="151">
+        <f t="shared" si="31"/>
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="W57" s="15">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="X57" s="151"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="11">
+        <f>SUM(C53:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
+        <f>SUM(D53:D57)</f>
+        <v>1931.1219999999998</v>
+      </c>
+      <c r="E58" s="11">
+        <f>SUM(E53:E57)</f>
+        <v>1978.7749999999999</v>
+      </c>
+      <c r="F58" s="14">
+        <f>SUM(F53:F57)</f>
+        <v>2009.3889999999999</v>
+      </c>
+      <c r="K58" s="11">
+        <f t="shared" ref="K58:V58" si="32">SUM(K53:K57)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <f t="shared" si="32"/>
+        <v>1978.7749999999999</v>
+      </c>
+      <c r="S58" s="11">
+        <f t="shared" si="32"/>
+        <v>155.89699999999999</v>
+      </c>
+      <c r="T58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="11">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="V58" s="152">
+        <f t="shared" si="32"/>
+        <v>2009.3889999999999</v>
+      </c>
+      <c r="W58" s="14">
+        <f t="shared" ref="W58:X58" si="33">SUM(W53:W57)</f>
+        <v>177.59600000000003</v>
+      </c>
+      <c r="X58" s="152">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="10">
-        <f t="shared" ref="C57:D57" si="20">C44-C56</f>
+      <c r="C59" s="10">
+        <f t="shared" ref="C59:D59" si="34">C46-C58</f>
         <v>0</v>
       </c>
-      <c r="D57" s="10">
-        <f t="shared" si="20"/>
+      <c r="D59" s="10">
+        <f t="shared" si="34"/>
         <v>-286.01299999999969</v>
       </c>
-      <c r="E57" s="10">
-        <f>E44-E56</f>
+      <c r="E59" s="10">
+        <f>E46-E58</f>
         <v>-377.02399999999943</v>
       </c>
-      <c r="F57" s="15">
-        <f>F44-F56</f>
+      <c r="F59" s="15">
+        <f>F46-F58</f>
         <v>-412.92200000000025</v>
       </c>
-      <c r="K57" s="10">
-        <f t="shared" ref="K57:V57" si="21">K44-K56</f>
+      <c r="K59" s="10">
+        <f t="shared" ref="K59:V59" si="35">K46-K58</f>
         <v>0</v>
       </c>
-      <c r="L57" s="10">
-        <f t="shared" si="21"/>
+      <c r="L59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="M57" s="10">
-        <f t="shared" si="21"/>
+      <c r="M59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="N57" s="10">
-        <f t="shared" si="21"/>
+      <c r="N59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="O57" s="10">
-        <f t="shared" si="21"/>
+      <c r="O59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="P57" s="10">
-        <f t="shared" si="21"/>
+      <c r="P59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="10">
-        <f t="shared" si="21"/>
+      <c r="Q59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="R57" s="10">
-        <f t="shared" si="21"/>
+      <c r="R59" s="10">
+        <f t="shared" si="35"/>
+        <v>-377.02399999999943</v>
+      </c>
+      <c r="S59" s="10">
+        <f t="shared" si="35"/>
+        <v>1440.5700000000002</v>
+      </c>
+      <c r="T59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="S57" s="10">
-        <f t="shared" si="21"/>
+      <c r="U59" s="10">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="T57" s="10">
-        <f t="shared" si="21"/>
+      <c r="V59" s="151">
+        <f t="shared" si="35"/>
+        <v>-412.92200000000025</v>
+      </c>
+      <c r="W59" s="15">
+        <f t="shared" ref="W59:X59" si="36">W46-W58</f>
+        <v>1838.3</v>
+      </c>
+      <c r="X59" s="151">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="U57" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V57" s="15">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="61" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="54"/>
-      <c r="V59" s="16"/>
-    </row>
-    <row r="77" spans="6:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F77" s="42"/>
-      <c r="V77" s="42"/>
-    </row>
-    <row r="78" spans="6:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="16"/>
-      <c r="V78" s="16"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="54"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="16"/>
+    </row>
+    <row r="79" spans="6:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="42"/>
+      <c r="V79" s="156"/>
+      <c r="W79" s="42"/>
+    </row>
+    <row r="80" spans="6:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="16"/>
+      <c r="V80" s="155"/>
+      <c r="W80" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -24605,14 +25123,14 @@
       <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="137"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
@@ -25019,10 +25537,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="138" t="s">
+      <c r="H17" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="139"/>
+      <c r="I17" s="144"/>
       <c r="M17" s="86"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
@@ -25030,8 +25548,8 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="141"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="146"/>
       <c r="M18" s="86"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
@@ -25454,14 +25972,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="H43" s="147" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="143"/>
-      <c r="J43" s="143"/>
-      <c r="K43" s="143"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">

--- a/Internet - Software Services/RDDT.xlsx
+++ b/Internet - Software Services/RDDT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Internet - Software Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDC21B0-222C-4BC0-8556-44329D321D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026D2009-8D36-44E6-9891-93312D188D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="90" windowWidth="14460" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14565" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Model!$B$17</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Model!$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$W$17</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$18:$W$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$W$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$K$17:$S$17</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$K$18:$S$18</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$K$2:$S$2</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Model!$B$5</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Model!$B$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$W$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$5:$W$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$6:$W$6</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$K$2:$S$2</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$K$5:$S$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$K$6:$S$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="202">
   <si>
     <t>Price</t>
   </si>
@@ -348,15 +348,6 @@
   </si>
   <si>
     <t>Q123</t>
-  </si>
-  <si>
-    <t>Q221</t>
-  </si>
-  <si>
-    <t>Q321</t>
-  </si>
-  <si>
-    <t>Q421</t>
   </si>
   <si>
     <t>Q122</t>
@@ -423,9 +414,6 @@
   </si>
   <si>
     <t>FY24</t>
-  </si>
-  <si>
-    <t>Q121</t>
   </si>
   <si>
     <t>Net Income y/y</t>
@@ -506,9 +494,6 @@
     <t>COGS</t>
   </si>
   <si>
-    <t>Sales &amp; Marketing</t>
-  </si>
-  <si>
     <t>Current Assets</t>
   </si>
   <si>
@@ -522,9 +507,6 @@
   </si>
   <si>
     <t>Rev. Exp.</t>
-  </si>
-  <si>
-    <t>Sales &amp; Marketing / REV</t>
   </si>
   <si>
     <t>Q224</t>
@@ -930,6 +912,18 @@
   </si>
   <si>
     <t>International y/y</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>S&amp;M</t>
+  </si>
+  <si>
+    <t>S&amp;M / REV</t>
   </si>
 </sst>
 </file>
@@ -1691,7 +1685,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1731,7 +1725,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1860,9 +1853,12 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1920,21 +1916,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2056,7 +2052,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2068,14 +2064,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -2089,11 +2080,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E309-400E-9279-09DE67BBD1C5}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2152,46 +2138,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$K$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -2199,15 +2173,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$5:$W$5</c:f>
+              <c:f>Model!$K$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="4">
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163.69999999999999</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>183.03100000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2216,18 +2202,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>163.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>243</c:v>
                 </c:pt>
               </c:numCache>
@@ -2337,10 +2311,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$21:$W$21</c:f>
+              <c:f>Model!$K$21:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2354,18 +2328,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.48442272449602952</c:v>
                 </c:pt>
               </c:numCache>
@@ -3001,10 +2963,10 @@
                   <c:v>0.205981391958314</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22629905140237483</c:v>
+                  <c:v>0.48004611773953432</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22720541998823496</c:v>
+                  <c:v>0.21848739495798308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3368,7 +3330,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="11"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3380,14 +3342,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="12"/>
+            <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3401,11 +3358,6 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C0F4-4607-8C78-36F0EE07B767}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3464,46 +3416,34 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$W$2</c:f>
+              <c:f>Model!$K$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
+                  <c:v>Q323</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q422</c:v>
+                  <c:v>Q423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Q323</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Q423</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>Q124</c:v>
                 </c:pt>
               </c:strCache>
@@ -3511,10 +3451,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$15:$W$15</c:f>
+              <c:f>Model!$K$15:$S$15</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3524,11 +3464,14 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>-60.905999999999992</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-41.109000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3537,18 +3480,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-60.905999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>-575.029</c:v>
                 </c:pt>
               </c:numCache>
@@ -3658,10 +3589,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$19:$W$19</c:f>
+              <c:f>Model!$K$19:$S$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3675,10 +3606,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.83590103848503361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.84245291781173681</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3687,18 +3618,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.83590103848503361</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.88635390946502057</c:v>
                 </c:pt>
               </c:numCache>
@@ -4644,7 +4563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sales &amp; Marketing / REV</c:v>
+                  <c:v>R&amp;D / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4733,40 +4652,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Model!$K$2:$U$2</c:f>
+              <c:f>Model!$K$2:$Q$2</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Q121</c:v>
+                  <c:v>Q122</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Q221</c:v>
+                  <c:v>Q222</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Q321</c:v>
+                  <c:v>Q322</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q421</c:v>
+                  <c:v>Q422</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q122</c:v>
+                  <c:v>Q123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q222</c:v>
+                  <c:v>Q223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q322</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Q422</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Q123</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Q223</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>Q323</c:v>
                 </c:pt>
               </c:strCache>
@@ -4774,10 +4681,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$22:$U$22</c:f>
+              <c:f>Model!$K$22:$Q$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4791,24 +4698,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.66442883323152113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.59949407477421857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66442883323152113</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4830,7 +4725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G&amp;A / REV</c:v>
+                  <c:v>S&amp;M / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4919,10 +4814,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$23:$V$23</c:f>
+              <c:f>Model!$K$23:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4936,27 +4831,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.35376298106292003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.32357906584130558</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.35376298106292003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4978,7 +4861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R&amp;D / REV</c:v>
+                  <c:v>G&amp;A / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5067,10 +4950,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Model!$K$24:$V$24</c:f>
+              <c:f>Model!$K$24:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5084,27 +4967,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.24924251679902262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.20888811184990519</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.24924251679902262</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5415,7 +5286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sales &amp; Marketing / REV</c:v>
+                  <c:v>R&amp;D / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5559,7 +5430,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>G&amp;A / REV</c:v>
+                  <c:v>S&amp;M / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5703,7 +5574,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>R&amp;D / REV</c:v>
+                  <c:v>G&amp;A / REV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -13189,7 +13060,7 @@
   <dimension ref="B2:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13210,38 +13081,38 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N2" s="32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C3" s="20">
         <v>45413</v>
@@ -13249,14 +13120,14 @@
       <c r="E3" s="5"/>
       <c r="F3" s="28"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N3" s="38"/>
+        <v>134</v>
+      </c>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -13266,12 +13137,12 @@
       <c r="E4" s="5"/>
       <c r="F4" s="28"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="39"/>
+      <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -13281,12 +13152,12 @@
       <c r="E5" s="5"/>
       <c r="F5" s="28"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="39"/>
+      <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -13295,17 +13166,17 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>46.49</v>
+        <v>55.02</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="39"/>
+      <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -13320,12 +13191,12 @@
       <c r="E7" s="5"/>
       <c r="F7" s="28"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="39"/>
+      <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -13335,17 +13206,17 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>7391.1461693000001</v>
+        <v>8747.2760213999991</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="39"/>
+      <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -13360,12 +13231,12 @@
       <c r="E9" s="5"/>
       <c r="F9" s="28"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="39"/>
+      <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -13380,18 +13251,18 @@
       <c r="E10" s="5"/>
       <c r="F10" s="28"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="39"/>
+      <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
@@ -13400,12 +13271,12 @@
       <c r="E11" s="5"/>
       <c r="F11" s="28"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -13415,26 +13286,26 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>8057.2631693000003</v>
+        <v>9413.3930213999993</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28"/>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="36">
         <f>C6/Model!F17</f>
-        <v>-81.378778398881295</v>
+        <v>-96.310182566281981</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -13443,11 +13314,11 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" s="36">
         <f>C6/Model!G18</f>
-        <v>-7.0761035007610351</v>
+        <v>-6.5734767025089615</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -13461,172 +13332,172 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C15" s="36">
         <f>C6/Model!H18</f>
-        <v>-39.398305084745765</v>
+        <v>-80.911764705882348</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6">
         <f>Model!G18/Model!F17-1</f>
-        <v>10.500507078525493</v>
+        <v>13.651330935655762</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6">
         <f>Model!H18/Model!G18-1</f>
-        <v>-0.82039573820395739</v>
+        <v>-0.91875746714456397</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="131"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+        <v>52</v>
+      </c>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="52">
+        <v>65</v>
+      </c>
+      <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>-6.7388207520304617E-3</v>
-      </c>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+        <v>-4.8152643383215987E-3</v>
+      </c>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="52">
+        <v>66</v>
+      </c>
+      <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>0.48023536995691957</v>
-      </c>
-      <c r="L19" s="134"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
+        <v>0.88066511129809522</v>
+      </c>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C20" s="6">
         <f>Model!G6/Model!F5-1</f>
-        <v>0.22629905140237483</v>
-      </c>
-      <c r="L20" s="134"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="136"/>
+        <v>0.48004611773953432</v>
+      </c>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C21" s="6">
         <f>Model!H6/Model!G6-1</f>
-        <v>0.22720541998823496</v>
-      </c>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
+        <v>0.21848739495798308</v>
+      </c>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C22" s="15">
         <f>Model!F13</f>
         <v>-87.023000000000053</v>
       </c>
-      <c r="L22" s="134"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="15">
         <f>Model!F13</f>
         <v>-87.023000000000053</v>
       </c>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" s="7">
         <f>Model!F19</f>
         <v>0.86193159699463573</v>
       </c>
-      <c r="L24" s="134"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
         <f>Model!F20</f>
         <v>-0.11296109966182818</v>
       </c>
-      <c r="L25" s="134"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>-92.587743117336743</v>
-      </c>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="136"/>
+        <v>-108.17132276984238</v>
+      </c>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="122">
+        <v>79</v>
+      </c>
+      <c r="C27" s="121">
         <f>Main!C10/Model!F59</f>
         <v>-4.5510750214326166</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L27" s="134"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+        <v>70</v>
+      </c>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C28" s="36"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="138"/>
-      <c r="N28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C29" s="36">
         <f>Model!F38/Model!F53</f>
@@ -13635,7 +13506,7 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C30" s="36">
         <f>(Model!F31+Model!F32+Model!F33)/Model!F53</f>
@@ -13644,7 +13515,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C31" s="6">
         <f>(Model!F38-Model!F53)/Model!F46</f>
@@ -13653,7 +13524,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C32" s="36">
         <f>(Model!F38-Model!F58)/Main!C7</f>
@@ -13662,7 +13533,7 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C33" s="36">
         <f>Model!F5/Model!F46</f>
@@ -13671,241 +13542,241 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="39">
+        <v>86</v>
+      </c>
+      <c r="C34" s="38">
         <f>Model!F15/Model!F46</f>
         <v>-5.6890621603829003E-2</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="39">
+        <v>87</v>
+      </c>
+      <c r="C35" s="38">
         <f>Model!F15/Model!F59</f>
         <v>0.21995437394955947</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="126" t="s">
+      <c r="E45" s="125" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="H45" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="127" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="128" t="s">
+        <v>157</v>
+      </c>
+      <c r="G46" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="128" t="s">
         <v>159</v>
       </c>
-      <c r="F45" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="127" t="s">
+      <c r="I46" s="128">
+        <v>264.22500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="127" t="s">
         <v>160</v>
       </c>
-      <c r="H45" s="127" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="127" t="s">
+      <c r="F47" s="128" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="128" t="s">
+      <c r="G47" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H47" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="128">
+        <v>530.45699999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="127" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="129" t="s">
+      <c r="F48" s="128" t="s">
         <v>163</v>
       </c>
-      <c r="G46" s="129" t="s">
+      <c r="G48" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H48" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I48" s="128">
+        <v>468.87900000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="127" t="s">
         <v>164</v>
       </c>
-      <c r="H46" s="129" t="s">
+      <c r="F49" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="I46" s="129">
-        <v>264.22500000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="128" t="s">
+      <c r="G49" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I49" s="128" t="s">
         <v>166</v>
       </c>
-      <c r="F47" s="129" t="s">
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="127" t="s">
         <v>167</v>
       </c>
-      <c r="G47" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H47" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I47" s="129">
-        <v>530.45699999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="128" t="s">
+      <c r="F50" s="128" t="s">
         <v>168</v>
       </c>
-      <c r="F48" s="129" t="s">
+      <c r="G50" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H50" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="128">
+        <v>246.77799999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="G48" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I48" s="129">
-        <v>468.87900000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="128" t="s">
+      <c r="F51" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="129" t="s">
+      <c r="G51" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" s="128">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="G49" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H49" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I49" s="129" t="s">
+      <c r="F52" s="128" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="128" t="s">
+      <c r="G52" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I52" s="128" t="s">
         <v>173</v>
       </c>
-      <c r="F50" s="129" t="s">
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="127" t="s">
         <v>174</v>
       </c>
-      <c r="G50" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H50" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I50" s="129">
-        <v>246.77799999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="128" t="s">
+      <c r="F53" s="128" t="s">
         <v>175</v>
       </c>
-      <c r="F51" s="129" t="s">
+      <c r="G53" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H53" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I53" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="G51" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H51" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I51" s="129">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="128" t="s">
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="127" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="129" t="s">
+      <c r="F54" s="128" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H52" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I52" s="129" t="s">
+      <c r="G54" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I54" s="128" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="128" t="s">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="127" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="129" t="s">
+      <c r="F55" s="128" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H53" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I53" s="129" t="s">
+      <c r="G55" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="I55" s="128" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="128" t="s">
-        <v>183</v>
-      </c>
-      <c r="F54" s="129" t="s">
-        <v>184</v>
-      </c>
-      <c r="G54" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H54" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I54" s="129" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="128" t="s">
-        <v>186</v>
-      </c>
-      <c r="F55" s="129" t="s">
-        <v>187</v>
-      </c>
-      <c r="G55" s="129" t="s">
-        <v>164</v>
-      </c>
-      <c r="H55" s="129" t="s">
-        <v>165</v>
-      </c>
-      <c r="I55" s="129" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -13919,13 +13790,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W20" sqref="W20"/>
+      <selection pane="bottomRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13933,124 +13804,116 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="13"/>
-    <col min="22" max="22" width="11.42578125" style="150"/>
-    <col min="23" max="23" width="11.42578125" style="13"/>
+    <col min="19" max="19" width="11.42578125" style="154"/>
+    <col min="20" max="20" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="O2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="R2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="S2" s="154" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="150" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="V2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="O3" s="10">
+        <v>130.6</v>
+      </c>
+      <c r="P3" s="10">
+        <v>183.03100000000001</v>
+      </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
-      <c r="S3" s="10">
-        <v>130.6</v>
-      </c>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="151"/>
-      <c r="W3" s="15">
+      <c r="S3" s="155">
         <v>199.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T3" s="15">
+        <v>281.18400000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="O4" s="10">
+        <v>33.1</v>
+      </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="10">
-        <v>33.1</v>
-      </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="15">
+      <c r="S4" s="155">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11">
         <v>228.90799999999999</v>
@@ -14064,89 +13927,99 @@
       <c r="F5" s="14">
         <v>804.029</v>
       </c>
-      <c r="G5" s="160">
+      <c r="G5" s="132">
         <v>985.98</v>
       </c>
-      <c r="H5" s="160">
+      <c r="H5" s="132">
         <v>1210</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="152">
-        <f t="shared" ref="O5:V5" si="0">SUM(O3:O4)</f>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5:R5" si="0">SUM(K3:K4)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="152">
+      <c r="L5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="152">
+      <c r="M5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="152">
+      <c r="N5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S5" s="152">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>163.69999999999999</v>
       </c>
-      <c r="T5" s="152">
+      <c r="P5" s="11">
+        <f t="shared" si="0"/>
+        <v>183.03100000000001</v>
+      </c>
+      <c r="Q5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U5" s="152">
+      <c r="R5" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V5" s="152">
-        <f t="shared" si="0"/>
+      <c r="S5" s="153">
+        <f>SUM(S3:S4)</f>
+        <v>243</v>
+      </c>
+      <c r="T5" s="14">
+        <f t="shared" ref="T5:V5" si="1">SUM(T3:T4)</f>
+        <v>281.18400000000003</v>
+      </c>
+      <c r="U5" s="153">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W5" s="14">
-        <f>SUM(W3:W4)</f>
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="153">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="43">
-        <v>985.98</v>
-      </c>
-      <c r="H6" s="43">
-        <v>1210</v>
-      </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="151"/>
-      <c r="W6" s="157">
+      <c r="G6" s="42">
+        <v>1190</v>
+      </c>
+      <c r="H6" s="42">
+        <v>1450</v>
+      </c>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="156">
         <v>212.83</v>
       </c>
-      <c r="X6" s="43">
+      <c r="T6" s="129">
         <v>223.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U6" s="42">
+        <v>309.33999999999997</v>
+      </c>
+      <c r="V6" s="42">
+        <v>352.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C7" s="10">
         <v>55.026000000000003</v>
@@ -14166,24 +14039,24 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="10">
+        <v>26.863</v>
+      </c>
+      <c r="P7" s="10">
+        <v>28.835999999999999</v>
+      </c>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="10">
-        <v>26.863</v>
-      </c>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="151"/>
-      <c r="W7" s="15">
+      <c r="S7" s="155">
         <v>27.616</v>
       </c>
-      <c r="X7" s="10"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T7" s="15">
+        <v>29.501000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C8" s="10">
         <v>75.396000000000001</v>
@@ -14197,29 +14070,30 @@
       <c r="F8" s="15">
         <v>230.17500000000001</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="O8" s="10">
+        <v>108.767</v>
+      </c>
+      <c r="P8" s="10">
+        <v>109.726</v>
+      </c>
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="10">
-        <v>108.767</v>
-      </c>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="151"/>
-      <c r="W8" s="15">
+      <c r="S8" s="155">
         <v>437.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T8" s="15">
+        <v>142.77699999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="C9" s="10">
         <v>43.517000000000003</v>
@@ -14233,29 +14107,30 @@
       <c r="F9" s="15">
         <v>164.65799999999999</v>
       </c>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="O9" s="10">
+        <v>57.911000000000001</v>
+      </c>
+      <c r="P9" s="10">
+        <v>59.225000000000001</v>
+      </c>
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="10">
-        <v>57.911000000000001</v>
-      </c>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="151"/>
-      <c r="W9" s="15">
+      <c r="S9" s="155">
         <v>124.095</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="T9" s="15">
+        <v>71.457999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="C10" s="10">
         <v>117.526</v>
@@ -14275,107 +14150,103 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="O10" s="10">
+        <v>40.801000000000002</v>
+      </c>
+      <c r="P10" s="10">
+        <v>38.232999999999997</v>
+      </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="10">
-        <v>40.801000000000002</v>
-      </c>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="151"/>
-      <c r="W10" s="15">
+      <c r="S10" s="155">
         <v>243.477</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="15">
+        <v>68.486999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="11">
-        <f t="shared" ref="C11:H11" si="1">C5-SUM(C7:C10)</f>
+        <f t="shared" ref="C11:H11" si="2">C5-SUM(C7:C10)</f>
         <v>-62.556999999999988</v>
       </c>
       <c r="D11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-127.21300000000002</v>
       </c>
       <c r="E11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-172.16200000000003</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-140.16100000000006</v>
       </c>
       <c r="G11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>985.98</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1210</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11">
-        <f t="shared" ref="K11:X11" si="2">K5-SUM(K7:K10)</f>
+        <f t="shared" ref="K11:T11" si="3">K5-SUM(K7:K10)</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>-70.641999999999996</v>
+      </c>
+      <c r="P11" s="11">
+        <f t="shared" si="3"/>
+        <v>-52.989000000000004</v>
+      </c>
+      <c r="Q11" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P11" s="11">
-        <f t="shared" si="2"/>
+      <c r="R11" s="11">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="11">
-        <f t="shared" si="2"/>
+      <c r="S11" s="153">
+        <f t="shared" si="3"/>
+        <v>-589.21799999999996</v>
+      </c>
+      <c r="T11" s="14">
+        <f t="shared" si="3"/>
+        <v>-31.03899999999993</v>
+      </c>
+      <c r="U11" s="11">
+        <f t="shared" ref="U11:V11" si="4">U5-SUM(U7:U10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="11">
-        <f t="shared" si="2"/>
+      <c r="V11" s="11">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S11" s="11">
-        <f t="shared" si="2"/>
-        <v>-70.641999999999996</v>
-      </c>
-      <c r="T11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="14">
-        <f t="shared" si="2"/>
-        <v>-589.21799999999996</v>
-      </c>
-      <c r="X11" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10">
         <v>3.4860000000000002</v>
@@ -14389,111 +14260,107 @@
       <c r="F12" s="15">
         <v>53.137999999999998</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="O12" s="10">
+        <v>10.724</v>
+      </c>
+      <c r="P12" s="10">
+        <v>13.305999999999999</v>
+      </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="10">
-        <v>10.724</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="15">
+      <c r="S12" s="155">
         <v>14.554</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="15">
+        <v>20.724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" ref="C13:H13" si="3">C11+SUM(C12:C12)</f>
+        <f t="shared" ref="C13:H13" si="5">C11+SUM(C12:C12)</f>
         <v>-59.070999999999991</v>
       </c>
       <c r="D13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-127.55600000000003</v>
       </c>
       <c r="E13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-157.92800000000003</v>
       </c>
       <c r="F13" s="14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-87.023000000000053</v>
       </c>
       <c r="G13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>985.98</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1210</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" ref="K13:X13" si="4">K11+SUM(K12:K12)</f>
+        <f t="shared" ref="K13:T13" si="6">K11+SUM(K12:K12)</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
+        <v>-59.917999999999992</v>
+      </c>
+      <c r="P13" s="11">
+        <f t="shared" si="6"/>
+        <v>-39.683000000000007</v>
+      </c>
+      <c r="Q13" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P13" s="11">
-        <f t="shared" si="4"/>
+      <c r="R13" s="11">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="4"/>
+      <c r="S13" s="153">
+        <f t="shared" si="6"/>
+        <v>-574.66399999999999</v>
+      </c>
+      <c r="T13" s="14">
+        <f t="shared" si="6"/>
+        <v>-10.31499999999993</v>
+      </c>
+      <c r="U13" s="11">
+        <f t="shared" ref="U13:V13" si="7">U11+SUM(U12:U12)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="11">
-        <f t="shared" si="4"/>
+      <c r="V13" s="11">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="S13" s="11">
-        <f t="shared" si="4"/>
-        <v>-59.917999999999992</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="152">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <f t="shared" si="4"/>
-        <v>-574.66399999999999</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10">
         <v>0.10199999999999999</v>
@@ -14507,29 +14374,30 @@
       <c r="F14" s="15">
         <v>3.8010000000000002</v>
       </c>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="O14" s="10">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1.4259999999999999</v>
+      </c>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="10">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="15">
+      <c r="S14" s="155">
         <v>0.36499999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="15">
+        <v>-0.216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C15" s="11">
         <f>C13-SUM(C14:C14)</f>
@@ -14547,63 +14415,58 @@
         <f>F13-SUM(F14:F14)</f>
         <v>-90.824000000000055</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
       <c r="K15" s="11">
-        <f t="shared" ref="K15:X15" si="5">K13-SUM(K14:K14)</f>
+        <f t="shared" ref="K15:T15" si="8">K13-SUM(K14:K14)</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="11">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
+        <v>-60.905999999999992</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" si="8"/>
+        <v>-41.109000000000009</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P15" s="11">
-        <f t="shared" si="5"/>
+      <c r="R15" s="11">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="5"/>
+      <c r="S15" s="153">
+        <f t="shared" si="8"/>
+        <v>-575.029</v>
+      </c>
+      <c r="T15" s="14">
+        <f t="shared" si="8"/>
+        <v>-10.098999999999931</v>
+      </c>
+      <c r="U15" s="11">
+        <f t="shared" ref="U15:V15" si="9">U13-SUM(U14:U14)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="11">
-        <f t="shared" si="5"/>
+      <c r="V15" s="11">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S15" s="11">
-        <f t="shared" si="5"/>
-        <v>-60.905999999999992</v>
-      </c>
-      <c r="T15" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="152">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="14">
-        <f t="shared" si="5"/>
-        <v>-575.029</v>
-      </c>
-      <c r="X15" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>1</v>
       </c>
@@ -14619,30 +14482,30 @@
       <c r="F16" s="15">
         <v>158.98356999999999</v>
       </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
+      <c r="O16" s="10">
+        <v>58.115000000000002</v>
+      </c>
+      <c r="P16" s="10">
+        <v>58.508158000000002</v>
+      </c>
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="151">
-        <v>58.115000000000002</v>
-      </c>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="151"/>
-      <c r="W16" s="15">
+      <c r="S16" s="155">
         <v>70.239999999999995</v>
       </c>
-      <c r="X16" s="10"/>
-    </row>
-    <row r="17" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="15">
+        <v>164.38273599999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <f>C15/C16</f>
@@ -14656,90 +14519,91 @@
         <f>E15/E16</f>
         <v>-0.99727286284991623</v>
       </c>
-      <c r="F17" s="55">
+      <c r="F17" s="54">
         <f>F15/F16</f>
         <v>-0.57127915796582041</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="153" t="e">
-        <f t="shared" ref="O17:V17" si="6">O15/O16</f>
+      <c r="G17" s="55"/>
+      <c r="H17" s="56"/>
+      <c r="K17" s="49" t="e">
+        <f t="shared" ref="K17:R17" si="10">K15/K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="153" t="e">
-        <f t="shared" si="6"/>
+      <c r="L17" s="49" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="153" t="e">
-        <f t="shared" si="6"/>
+      <c r="M17" s="49" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="153" t="e">
-        <f t="shared" si="6"/>
+      <c r="N17" s="49" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="153">
-        <f t="shared" si="6"/>
+      <c r="O17" s="49">
+        <f t="shared" si="10"/>
         <v>-1.0480254667469671</v>
       </c>
-      <c r="T17" s="153" t="e">
-        <f t="shared" si="6"/>
+      <c r="P17" s="49">
+        <f t="shared" si="10"/>
+        <v>-0.70261996626179901</v>
+      </c>
+      <c r="Q17" s="49" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="153" t="e">
-        <f t="shared" si="6"/>
+      <c r="R17" s="49" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V17" s="153" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W17" s="49">
-        <f>W15/W16</f>
+      <c r="S17" s="157">
+        <f>S15/S16</f>
         <v>-8.1866315489749439</v>
       </c>
-      <c r="X17" s="50"/>
-    </row>
-    <row r="18" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="48">
+        <f>T15/T16</f>
+        <v>-6.1435891905339324E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="35"/>
-      <c r="G18" s="44">
-        <v>-6.57</v>
-      </c>
-      <c r="H18" s="45">
-        <v>-1.18</v>
-      </c>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="153"/>
-      <c r="W18" s="158">
+      <c r="G18" s="43">
+        <v>-8.3699999999999992</v>
+      </c>
+      <c r="H18" s="44">
+        <v>-0.68</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="158">
         <v>-8.7100000000000009</v>
       </c>
-      <c r="X18" s="130">
+      <c r="T18" s="130">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="152">
+        <v>-0.09</v>
+      </c>
+      <c r="V18" s="152">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3">
         <f>1-C7/C5</f>
@@ -14757,64 +14621,60 @@
         <f>1-F7/F5</f>
         <v>0.86193159699463573</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
       <c r="K19" s="3" t="e">
-        <f t="shared" ref="K19:W19" si="7">1-K7/K5</f>
+        <f t="shared" ref="K19:S19" si="11">1-K7/K5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L19" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M19" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N19" s="3" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O19" s="3" t="e">
-        <f t="shared" si="7"/>
+      <c r="O19" s="3">
+        <f t="shared" si="11"/>
+        <v>0.83590103848503361</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="11"/>
+        <v>0.84245291781173681</v>
+      </c>
+      <c r="Q19" s="3" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P19" s="3" t="e">
-        <f t="shared" si="7"/>
+      <c r="R19" s="39" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q19" s="3" t="e">
-        <f t="shared" si="7"/>
+      <c r="S19" s="39">
+        <f t="shared" si="11"/>
+        <v>0.88635390946502057</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" ref="T19:V19" si="12">1-T7/T5</f>
+        <v>0.89508293501763969</v>
+      </c>
+      <c r="U19" s="39" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R19" s="3" t="e">
-        <f t="shared" si="7"/>
+      <c r="V19" s="39" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S19" s="3">
-        <f t="shared" si="7"/>
-        <v>0.83590103848503361</v>
-      </c>
-      <c r="T19" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U19" s="3" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V19" s="40" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W19" s="6">
-        <f t="shared" si="7"/>
-        <v>0.88635390946502057</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4">
         <f>C15/C5</f>
@@ -14832,77 +14692,73 @@
         <f>F15/F5</f>
         <v>-0.11296109966182818</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <f>G15/G6</f>
         <v>0</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <f>H15/H6</f>
         <v>0</v>
       </c>
       <c r="K20" s="4" t="e">
-        <f t="shared" ref="K20:W20" si="8">K15/K5</f>
+        <f t="shared" ref="K20:S20" si="13">K15/K5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L20" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M20" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N20" s="4" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O20" s="4" t="e">
-        <f t="shared" si="8"/>
+      <c r="O20" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.37205864386072079</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="13"/>
+        <v>-0.22460129704804108</v>
+      </c>
+      <c r="Q20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P20" s="4" t="e">
-        <f t="shared" si="8"/>
+      <c r="R20" s="4" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q20" s="4" t="e">
-        <f t="shared" si="8"/>
+      <c r="S20" s="159">
+        <f t="shared" si="13"/>
+        <v>-2.3663744855967077</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20:V20" si="14">T15/T5</f>
+        <v>-3.5915983839763035E-2</v>
+      </c>
+      <c r="U20" s="159" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R20" s="4" t="e">
-        <f t="shared" si="8"/>
+      <c r="V20" s="159" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S20" s="4">
-        <f t="shared" si="8"/>
-        <v>-0.37205864386072079</v>
-      </c>
-      <c r="T20" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U20" s="4" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V20" s="154" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W20" s="7">
-        <f t="shared" si="8"/>
-        <v>-2.3663744855967077</v>
-      </c>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
         <f>D5/C5-1</f>
         <v>1.118388173414647</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <f>E5/D5-1</f>
         <v>0.37487936054904369</v>
       </c>
@@ -14910,232 +14766,196 @@
         <f>F5/E5-1</f>
         <v>0.205981391958314</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="47">
         <f>G6/F5-1</f>
-        <v>0.22629905140237483</v>
-      </c>
-      <c r="H21" s="48">
+        <v>0.48004611773953432</v>
+      </c>
+      <c r="H21" s="47">
         <f>H6/G6-1</f>
-        <v>0.22720541998823496</v>
+        <v>0.21848739495798308</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4" t="e">
-        <f t="shared" ref="O21:V21" si="9">O5/K5-1</f>
+        <f t="shared" ref="O21:R21" si="15">O5/K5-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P21" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q21" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R21" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S21" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="S21" s="160">
+        <f>S5/O5-1</f>
+        <v>0.48442272449602952</v>
+      </c>
+      <c r="T21" s="131">
+        <f t="shared" ref="T21:V21" si="16">T5/P5-1</f>
+        <v>0.53626434866224848</v>
+      </c>
+      <c r="U21" s="160" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T21" s="4" t="e">
-        <f t="shared" si="9"/>
+      <c r="V21" s="160" t="e">
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U21" s="4" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V21" s="154" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W21" s="159">
-        <f>W5/S5-1</f>
-        <v>0.48442272449602952</v>
-      </c>
-      <c r="X21" s="37" t="e">
-        <f>X6/T5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y21" s="37" t="e">
-        <f>Y6/U5-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:E22" si="10">C8/C$5</f>
+        <f t="shared" ref="C22:E22" si="17">C8/C$5</f>
         <v>0.32937249899522952</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.2843110971797177</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0.33759961361989854</v>
       </c>
       <c r="F22" s="7">
         <f>F8/F$5</f>
         <v>0.28627698752159436</v>
       </c>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
       <c r="K22" s="4" t="e">
-        <f t="shared" ref="K22:Y22" si="11">K8/K$5</f>
+        <f t="shared" ref="K22:U22" si="18">K8/K$5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L22" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M22" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N22" s="4" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O22" s="4" t="e">
-        <f t="shared" si="11"/>
+      <c r="O22" s="4">
+        <f>O8/O$5</f>
+        <v>0.66442883323152113</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="18"/>
+        <v>0.59949407477421857</v>
+      </c>
+      <c r="Q22" s="4" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="4" t="e">
-        <f t="shared" si="11"/>
+      <c r="R22" s="4" t="e">
+        <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q22" s="4" t="e">
-        <f t="shared" si="11"/>
+      <c r="S22" s="159">
+        <f t="shared" si="18"/>
+        <v>1.7984773662551439</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" ref="T22:V22" si="19">T8/T$5</f>
+        <v>0.50777071241606908</v>
+      </c>
+      <c r="U22" s="159" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R22" s="4" t="e">
-        <f t="shared" si="11"/>
+      <c r="V22" s="159" t="e">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S22" s="4">
-        <f t="shared" si="11"/>
-        <v>0.66442883323152113</v>
-      </c>
-      <c r="T22" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U22" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V22" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W22" s="7">
-        <f t="shared" si="11"/>
-        <v>1.7984773662551439</v>
-      </c>
-      <c r="X22" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y22" s="4" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="C23" s="4">
         <f>C9/C$5</f>
         <v>0.19010694252712881</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:E23" si="12">D9/D$5</f>
+        <f t="shared" ref="D23:E23" si="20">D9/D$5</f>
         <v>0.29844756617640994</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0.21572189032264838</v>
       </c>
       <c r="F23" s="7">
         <f>F9/F$5</f>
         <v>0.20479112071828254</v>
       </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
       <c r="K23" s="4" t="e">
-        <f t="shared" ref="K23:Y23" si="13">K9/K$5</f>
+        <f t="shared" ref="K23:U23" si="21">K9/K$5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L23" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M23" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N23" s="4" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O23" s="4" t="e">
-        <f t="shared" si="13"/>
+      <c r="O23" s="4">
+        <f>O9/O$5</f>
+        <v>0.35376298106292003</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="21"/>
+        <v>0.32357906584130558</v>
+      </c>
+      <c r="Q23" s="4" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="4" t="e">
-        <f t="shared" si="13"/>
+      <c r="R23" s="4" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q23" s="4" t="e">
-        <f t="shared" si="13"/>
+      <c r="S23" s="159">
+        <f t="shared" si="21"/>
+        <v>0.51067901234567903</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" ref="T23:V23" si="22">T9/T$5</f>
+        <v>0.25413252532149766</v>
+      </c>
+      <c r="U23" s="159" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R23" s="4" t="e">
-        <f t="shared" si="13"/>
+      <c r="V23" s="159" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S23" s="4">
-        <f t="shared" si="13"/>
-        <v>0.35376298106292003</v>
-      </c>
-      <c r="T23" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U23" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V23" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W23" s="7">
-        <f t="shared" si="13"/>
-        <v>0.51067901234567903</v>
-      </c>
-      <c r="X23" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y23" s="4" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4">
         <f>C10/C$5</f>
@@ -15153,79 +14973,67 @@
         <f>F10/F$5</f>
         <v>0.54518680296357469</v>
       </c>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
       <c r="K24" s="4" t="e">
-        <f t="shared" ref="K24:Y24" si="14">K10/K$5</f>
+        <f t="shared" ref="K24:U24" si="23">K10/K$5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L24" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M24" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N24" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="4" t="e">
-        <f t="shared" si="14"/>
+      <c r="O24" s="4">
+        <f t="shared" si="23"/>
+        <v>0.24924251679902262</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="23"/>
+        <v>0.20888811184990519</v>
+      </c>
+      <c r="Q24" s="4" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="4" t="e">
-        <f t="shared" si="14"/>
+      <c r="R24" s="4" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q24" s="4" t="e">
-        <f t="shared" si="14"/>
+      <c r="S24" s="159">
+        <f t="shared" si="23"/>
+        <v>1.0019629629629629</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" ref="T24:V24" si="24">T10/T$5</f>
+        <v>0.24356649026971658</v>
+      </c>
+      <c r="U24" s="159" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R24" s="4" t="e">
-        <f t="shared" si="14"/>
+      <c r="V24" s="159" t="e">
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S24" s="4">
-        <f t="shared" si="14"/>
-        <v>0.24924251679902262</v>
-      </c>
-      <c r="T24" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U24" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V24" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W24" s="7">
-        <f t="shared" si="14"/>
-        <v>1.0019629629629629</v>
-      </c>
-      <c r="X24" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y24" s="4" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -15234,25 +15042,33 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="7">
-        <f>W3/S3-1</f>
+      <c r="S25" s="159">
+        <f>S3/O3-1</f>
         <v>0.52986217457886697</v>
       </c>
-    </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T25" s="7">
+        <f t="shared" ref="T25:V25" si="25">T3/P3-1</f>
+        <v>0.53626434866224848</v>
+      </c>
+      <c r="U25" s="159" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" s="159" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -15261,25 +15077,33 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="154"/>
-      <c r="W26" s="7">
-        <f>W4/S4-1</f>
+      <c r="S26" s="159">
+        <f>S4/O4-1</f>
         <v>0.30513595166163143</v>
       </c>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T26" s="7" t="e">
+        <f t="shared" ref="T26:V26" si="26">T4/P4-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="159" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="159" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3">
         <f>-(D15/C15-1)</f>
         <v>-1.1613911750291526</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="39">
         <f>E15/D15-1</f>
         <v>0.23967911428035271</v>
       </c>
@@ -15287,11 +15111,11 @@
         <f>F15/E15-1</f>
         <v>-0.42715862503941959</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="57">
         <f>G17/F17-1</f>
         <v>-1</v>
       </c>
-      <c r="H27" s="58" t="e">
+      <c r="H27" s="57" t="e">
         <f>H17/G17-1</f>
         <v>#DIV/0!</v>
       </c>
@@ -15300,45 +15124,41 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4" t="e">
-        <f t="shared" ref="O27:W27" si="15">O15/K15-1</f>
+        <f t="shared" ref="O27:S27" si="27">O15/K15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="P27" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f>P15/L15-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q27" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="4" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S27" s="4" t="e">
-        <f t="shared" si="15"/>
+      <c r="S27" s="159">
+        <f t="shared" si="27"/>
+        <v>8.4412537352641781</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" ref="T27" si="28">T15/P15-1</f>
+        <v>-0.75433603347199085</v>
+      </c>
+      <c r="U27" s="159" t="e">
+        <f t="shared" ref="U27" si="29">U15/Q15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T27" s="4" t="e">
-        <f>T15/P15-1</f>
+      <c r="V27" s="159" t="e">
+        <f t="shared" ref="V27" si="30">V15/R15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U27" s="4" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V27" s="154" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W27" s="7">
-        <f t="shared" si="15"/>
-        <v>8.4412537352641781</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11">
         <f>C31+C32-C50-C54-C56</f>
@@ -15357,65 +15177,57 @@
         <v>-666.11699999999996</v>
       </c>
       <c r="K30" s="11">
-        <f t="shared" ref="K30:X30" si="16">K31+K32-K50-K54-K56</f>
+        <f t="shared" ref="K30:T30" si="31">K31+K32-K50-K54-K56</f>
         <v>0</v>
       </c>
       <c r="L30" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M30" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="N30" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="31"/>
+        <v>-606.43999999999983</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="31"/>
+        <v>1191.0820000000001</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="O30" s="11">
-        <f t="shared" si="16"/>
+      <c r="Q30" s="11">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="P30" s="11">
-        <f t="shared" si="16"/>
+      <c r="R30" s="11">
+        <f t="shared" si="31"/>
+        <v>-666.11699999999996</v>
+      </c>
+      <c r="S30" s="153">
+        <f t="shared" si="31"/>
+        <v>1649.5149999999999</v>
+      </c>
+      <c r="T30" s="14">
+        <f>T31+T32-T50-T54-T56</f>
+        <v>1676.2939999999999</v>
+      </c>
+      <c r="U30" s="153">
+        <f t="shared" ref="T30:V30" si="32">U31+U32-U50-U54-U56</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="11">
-        <f t="shared" si="16"/>
+      <c r="V30" s="153">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="R30" s="11">
-        <f t="shared" si="16"/>
-        <v>-606.43999999999983</v>
-      </c>
-      <c r="S30" s="11">
-        <f t="shared" si="16"/>
-        <v>1191.0820000000001</v>
-      </c>
-      <c r="T30" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="11">
-        <f t="shared" si="16"/>
-        <v>-666.11699999999996</v>
-      </c>
-      <c r="W30" s="14">
-        <f t="shared" si="16"/>
-        <v>1649.5149999999999</v>
-      </c>
-      <c r="X30" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10">
@@ -15430,31 +15242,31 @@
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="N31" s="10">
+        <f>E31</f>
+        <v>435.81</v>
+      </c>
+      <c r="O31" s="10">
+        <v>401.17599999999999</v>
+      </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
       <c r="R31" s="10">
-        <f>E31</f>
-        <v>435.81</v>
-      </c>
-      <c r="S31" s="10">
-        <v>401.17599999999999</v>
-      </c>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="151">
         <f>F31</f>
         <v>401.17599999999999</v>
       </c>
-      <c r="W31" s="15">
+      <c r="S31" s="155">
         <v>968.51499999999999</v>
       </c>
-      <c r="X31" s="151"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T31" s="15">
+        <v>467.952</v>
+      </c>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10">
@@ -15469,31 +15281,31 @@
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
       <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="N32" s="10">
+        <f>E32</f>
+        <v>830.73400000000004</v>
+      </c>
+      <c r="O32" s="10">
+        <v>811.94600000000003</v>
+      </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
       <c r="R32" s="10">
-        <f t="shared" ref="R32:R37" si="17">E32</f>
-        <v>830.73400000000004</v>
-      </c>
-      <c r="S32" s="10">
+        <f>F32</f>
         <v>811.94600000000003</v>
       </c>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="151">
-        <f t="shared" ref="V32:V37" si="18">F32</f>
-        <v>811.94600000000003</v>
-      </c>
-      <c r="W32" s="15">
+      <c r="S32" s="155">
         <v>701.83500000000004</v>
       </c>
-      <c r="X32" s="151"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T32" s="15">
+        <v>1231.0989999999999</v>
+      </c>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10">
@@ -15508,31 +15320,31 @@
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
       <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="N33" s="10">
+        <f>E33</f>
+        <v>191.98699999999999</v>
+      </c>
+      <c r="O33" s="10">
+        <v>245.279</v>
+      </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="10">
-        <f t="shared" si="17"/>
-        <v>191.98699999999999</v>
-      </c>
-      <c r="S33" s="10">
+        <f>F33</f>
         <v>245.279</v>
       </c>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="151">
-        <f t="shared" si="18"/>
-        <v>245.279</v>
-      </c>
-      <c r="W33" s="15">
+      <c r="S33" s="155">
         <v>215.30699999999999</v>
       </c>
-      <c r="X33" s="151"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T33" s="15">
+        <v>240.09299999999999</v>
+      </c>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10">
@@ -15547,27 +15359,25 @@
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="10">
+        <f>E34</f>
+        <v>2.819</v>
+      </c>
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
       <c r="R34" s="10">
-        <f t="shared" si="17"/>
-        <v>2.819</v>
-      </c>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="151">
-        <f t="shared" si="18"/>
+        <f>F34</f>
         <v>3.0710000000000002</v>
       </c>
-      <c r="W34" s="15"/>
-      <c r="X34" s="151"/>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S34" s="155"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="155"/>
+      <c r="V34" s="155"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
@@ -15582,27 +15392,25 @@
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="10">
+        <f>E35</f>
+        <v>4.2750000000000004</v>
+      </c>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10">
-        <f t="shared" si="17"/>
-        <v>4.2750000000000004</v>
-      </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="151">
-        <f t="shared" si="18"/>
+        <f>F35</f>
         <v>4.6950000000000003</v>
       </c>
-      <c r="W35" s="15"/>
-      <c r="X35" s="151"/>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S35" s="155"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="155"/>
+      <c r="V35" s="155"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10">
@@ -15617,31 +15425,31 @@
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="N36" s="10">
+        <f>E36</f>
+        <v>17.053000000000001</v>
+      </c>
+      <c r="O36" s="10">
+        <v>21.286000000000001</v>
+      </c>
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
       <c r="R36" s="10">
-        <f t="shared" si="17"/>
-        <v>17.053000000000001</v>
-      </c>
-      <c r="S36" s="10">
-        <v>21.286000000000001</v>
-      </c>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="151">
-        <f t="shared" si="18"/>
+        <f>F36</f>
         <v>11.93</v>
       </c>
-      <c r="W36" s="15">
+      <c r="S36" s="155">
         <v>34.368000000000002</v>
       </c>
-      <c r="X36" s="151"/>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T36" s="15">
+        <v>41.598999999999997</v>
+      </c>
+      <c r="U36" s="155"/>
+      <c r="V36" s="155"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10">
@@ -15656,27 +15464,25 @@
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="10">
+        <f>E37</f>
+        <v>1.2490000000000001</v>
+      </c>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10">
-        <f t="shared" si="17"/>
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="151">
-        <f t="shared" si="18"/>
+        <f>F37</f>
         <v>1.59</v>
       </c>
-      <c r="W37" s="15"/>
-      <c r="X37" s="151"/>
-    </row>
-    <row r="38" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="155"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="155"/>
+      <c r="V37" s="155"/>
+    </row>
+    <row r="38" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C38" s="11">
         <f>SUM(C31:C37)</f>
@@ -15687,73 +15493,65 @@
         <v>1600.8719999999998</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" ref="E38:F38" si="19">SUM(E31:E37)</f>
+        <f t="shared" ref="E38:F38" si="33">SUM(E31:E37)</f>
         <v>1483.9270000000004</v>
       </c>
       <c r="F38" s="14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>1479.6869999999999</v>
       </c>
       <c r="K38" s="11">
-        <f t="shared" ref="K38:V38" si="20">SUM(K31:K37)</f>
+        <f t="shared" ref="K38:R38" si="34">SUM(K31:K37)</f>
         <v>0</v>
       </c>
       <c r="L38" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M38" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N38" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="34"/>
+        <v>1483.9270000000004</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="34"/>
+        <v>1479.6870000000001</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O38" s="11">
-        <f t="shared" si="20"/>
+      <c r="Q38" s="11">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="P38" s="11">
-        <f t="shared" si="20"/>
+      <c r="R38" s="11">
+        <f t="shared" si="34"/>
+        <v>1479.6869999999999</v>
+      </c>
+      <c r="S38" s="153">
+        <f t="shared" ref="S38:T38" si="35">SUM(S31:S37)</f>
+        <v>1920.0249999999999</v>
+      </c>
+      <c r="T38" s="14">
+        <f t="shared" ref="T38:V38" si="36">SUM(T31:T37)</f>
+        <v>1980.7429999999999</v>
+      </c>
+      <c r="U38" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="11">
-        <f t="shared" si="20"/>
+      <c r="V38" s="153">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="R38" s="11">
-        <f t="shared" si="20"/>
-        <v>1483.9270000000004</v>
-      </c>
-      <c r="S38" s="11">
-        <f t="shared" si="20"/>
-        <v>1479.6870000000001</v>
-      </c>
-      <c r="T38" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U38" s="11">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="152">
-        <f t="shared" si="20"/>
-        <v>1479.6869999999999</v>
-      </c>
-      <c r="W38" s="14">
-        <f t="shared" ref="W38:X38" si="21">SUM(W31:W37)</f>
-        <v>1920.0249999999999</v>
-      </c>
-      <c r="X38" s="152">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
@@ -15768,31 +15566,31 @@
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="N39" s="10">
+        <f>E39</f>
+        <v>30.544</v>
+      </c>
+      <c r="O39" s="10">
+        <v>14.946</v>
+      </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10">
-        <f t="shared" ref="R39:R45" si="22">E39</f>
-        <v>30.544</v>
-      </c>
-      <c r="S39" s="10">
-        <v>14.946</v>
-      </c>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="151">
-        <f t="shared" ref="V39:V45" si="23">F39</f>
+        <f>F39</f>
         <v>38.954000000000001</v>
       </c>
-      <c r="W39" s="15">
+      <c r="S39" s="155">
         <v>14.385</v>
       </c>
-      <c r="X39" s="151"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T39" s="15">
+        <v>14.167999999999999</v>
+      </c>
+      <c r="U39" s="155"/>
+      <c r="V39" s="155"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10">
@@ -15807,31 +15605,31 @@
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="N40" s="10">
+        <f>E40</f>
+        <v>26.298999999999999</v>
+      </c>
+      <c r="O40" s="10">
+        <v>26.298999999999999</v>
+      </c>
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
       <c r="R40" s="10">
-        <f t="shared" si="22"/>
+        <f>F40</f>
         <v>26.298999999999999</v>
       </c>
-      <c r="S40" s="10">
+      <c r="S40" s="155">
         <v>26.298999999999999</v>
       </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="151">
-        <f t="shared" si="23"/>
+      <c r="T40" s="15">
         <v>26.298999999999999</v>
       </c>
-      <c r="W40" s="15">
-        <v>26.298999999999999</v>
-      </c>
-      <c r="X40" s="151"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="U40" s="155"/>
+      <c r="V40" s="155"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
@@ -15846,31 +15644,31 @@
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="N41" s="10">
+        <f>E41</f>
+        <v>41.237000000000002</v>
+      </c>
+      <c r="O41" s="10">
+        <v>32.146999999999998</v>
+      </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10">
-        <f t="shared" si="22"/>
-        <v>41.237000000000002</v>
-      </c>
-      <c r="S41" s="10">
+        <f>F41</f>
         <v>32.146999999999998</v>
       </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="151">
-        <f t="shared" si="23"/>
-        <v>32.146999999999998</v>
-      </c>
-      <c r="W41" s="15">
+      <c r="S41" s="155">
         <v>29.928000000000001</v>
       </c>
-      <c r="X41" s="151"/>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T41" s="15">
+        <v>27.771999999999998</v>
+      </c>
+      <c r="U41" s="155"/>
+      <c r="V41" s="155"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -15881,27 +15679,25 @@
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
+      <c r="N42" s="10">
+        <f>E42</f>
+        <v>0</v>
+      </c>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10">
-        <f t="shared" si="22"/>
+        <f>F42</f>
         <v>0</v>
       </c>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="151">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="15"/>
-      <c r="X42" s="151"/>
-    </row>
-    <row r="43" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="155"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="155"/>
+      <c r="V42" s="155"/>
+    </row>
+    <row r="43" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -15916,31 +15712,31 @@
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
+      <c r="N43" s="10">
+        <f>E43</f>
+        <v>16.847999999999999</v>
+      </c>
+      <c r="O43" s="10">
+        <v>24.007999999999999</v>
+      </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10">
-        <f t="shared" si="22"/>
-        <v>16.847999999999999</v>
-      </c>
-      <c r="S43" s="10">
-        <v>24.007999999999999</v>
-      </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="151">
-        <f t="shared" si="23"/>
+        <f>F43</f>
         <v>16.484000000000002</v>
       </c>
-      <c r="W43" s="15">
+      <c r="S43" s="155">
         <v>22.754000000000001</v>
       </c>
-      <c r="X43" s="151"/>
-    </row>
-    <row r="44" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T43" s="15">
+        <v>25.106999999999999</v>
+      </c>
+      <c r="U43" s="155"/>
+      <c r="V43" s="155"/>
+    </row>
+    <row r="44" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -15955,27 +15751,25 @@
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="10">
+        <f>E44</f>
+        <v>0.96199999999999997</v>
+      </c>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10">
-        <f t="shared" si="22"/>
+        <f>F44</f>
         <v>0.96199999999999997</v>
       </c>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="151">
-        <f t="shared" si="23"/>
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="W44" s="15"/>
-      <c r="X44" s="151"/>
-    </row>
-    <row r="45" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="155"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="155"/>
+      <c r="V44" s="155"/>
+    </row>
+    <row r="45" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
@@ -15990,31 +15784,31 @@
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+      <c r="N45" s="10">
+        <f>E45</f>
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="O45" s="10">
+        <v>19.38</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10">
-        <f t="shared" si="22"/>
+        <f>F45</f>
         <v>1.9339999999999999</v>
       </c>
-      <c r="S45" s="10">
-        <v>19.38</v>
-      </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="151">
-        <f t="shared" si="23"/>
-        <v>1.9339999999999999</v>
-      </c>
-      <c r="W45" s="15">
+      <c r="S45" s="155">
         <v>2.5049999999999999</v>
       </c>
-      <c r="X45" s="151"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T45" s="15">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="U45" s="155"/>
+      <c r="V45" s="155"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C46" s="11">
         <f>SUM(C38:C45)</f>
@@ -16033,65 +15827,57 @@
         <v>1596.4669999999996</v>
       </c>
       <c r="K46" s="11">
-        <f t="shared" ref="K46:V46" si="24">SUM(K38:K45)</f>
+        <f t="shared" ref="K46:R46" si="37">SUM(K38:K45)</f>
         <v>0</v>
       </c>
       <c r="L46" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M46" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N46" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
+        <v>1601.7510000000004</v>
+      </c>
+      <c r="O46" s="11">
+        <f t="shared" si="37"/>
+        <v>1596.4670000000001</v>
+      </c>
+      <c r="P46" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="O46" s="11">
-        <f t="shared" si="24"/>
+      <c r="Q46" s="11">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="P46" s="11">
-        <f t="shared" si="24"/>
+      <c r="R46" s="11">
+        <f t="shared" si="37"/>
+        <v>1596.4669999999996</v>
+      </c>
+      <c r="S46" s="153">
+        <f t="shared" ref="S46:T46" si="38">SUM(S38:S45)</f>
+        <v>2015.896</v>
+      </c>
+      <c r="T46" s="14">
+        <f t="shared" ref="T46:V46" si="39">SUM(T38:T45)</f>
+        <v>2076.3620000000001</v>
+      </c>
+      <c r="U46" s="153">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="11">
-        <f t="shared" si="24"/>
+      <c r="V46" s="153">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="R46" s="11">
-        <f t="shared" si="24"/>
-        <v>1601.7510000000004</v>
-      </c>
-      <c r="S46" s="11">
-        <f t="shared" si="24"/>
-        <v>1596.4670000000001</v>
-      </c>
-      <c r="T46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="152">
-        <f t="shared" si="24"/>
-        <v>1596.4669999999996</v>
-      </c>
-      <c r="W46" s="14">
-        <f t="shared" ref="W46:X46" si="25">SUM(W38:W45)</f>
-        <v>2015.896</v>
-      </c>
-      <c r="X46" s="152">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
@@ -16106,31 +15892,31 @@
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
+      <c r="N47" s="10">
+        <f>E47</f>
+        <v>32.944000000000003</v>
+      </c>
+      <c r="O47" s="10">
+        <v>46.514000000000003</v>
+      </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10">
-        <f t="shared" ref="R47:R52" si="26">E47</f>
-        <v>32.944000000000003</v>
-      </c>
-      <c r="S47" s="10">
+        <f>F47</f>
         <v>46.514000000000003</v>
       </c>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="151">
-        <f t="shared" ref="V47:V52" si="27">F47</f>
-        <v>46.514000000000003</v>
-      </c>
-      <c r="W47" s="15">
+      <c r="S47" s="155">
         <v>45.378</v>
       </c>
-      <c r="X47" s="151"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T47" s="15">
+        <v>64.328999999999994</v>
+      </c>
+      <c r="U47" s="155"/>
+      <c r="V47" s="155"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -16145,31 +15931,31 @@
       <c r="K48" s="10"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+      <c r="N48" s="10">
+        <f>E48</f>
+        <v>21.013000000000002</v>
+      </c>
+      <c r="O48" s="10">
+        <v>83.349000000000004</v>
+      </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10">
-        <f t="shared" si="26"/>
-        <v>21.013000000000002</v>
-      </c>
-      <c r="S48" s="10">
-        <v>83.349000000000004</v>
-      </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="151">
-        <f t="shared" si="27"/>
+        <f>F48</f>
         <v>26.74</v>
       </c>
-      <c r="W48" s="15">
+      <c r="S48" s="155">
         <v>106.724</v>
       </c>
-      <c r="X48" s="151"/>
-    </row>
-    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T48" s="15">
+        <v>89.817999999999998</v>
+      </c>
+      <c r="U48" s="155"/>
+      <c r="V48" s="155"/>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
@@ -16184,27 +15970,25 @@
       <c r="K49" s="10"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
+      <c r="N49" s="10">
+        <f>E49</f>
+        <v>31.417999999999999</v>
+      </c>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10">
-        <f t="shared" si="26"/>
-        <v>31.417999999999999</v>
-      </c>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="151">
-        <f t="shared" si="27"/>
+        <f>F49</f>
         <v>37.963999999999999</v>
       </c>
-      <c r="W49" s="15"/>
-      <c r="X49" s="151"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S49" s="155"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="155"/>
+      <c r="V49" s="155"/>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
@@ -16219,27 +16003,25 @@
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
+      <c r="N50" s="10">
+        <f>E50</f>
+        <v>7.8019999999999996</v>
+      </c>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10">
-        <f t="shared" si="26"/>
-        <v>7.8019999999999996</v>
-      </c>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="151">
-        <f t="shared" si="27"/>
+        <f>F50</f>
         <v>3.7069999999999999</v>
       </c>
-      <c r="W50" s="15"/>
-      <c r="X50" s="151"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S50" s="155"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="155"/>
+      <c r="V50" s="155"/>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
@@ -16254,27 +16036,25 @@
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
+      <c r="N51" s="10">
+        <f>E51</f>
+        <v>8.02</v>
+      </c>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10">
-        <f t="shared" si="26"/>
-        <v>8.02</v>
-      </c>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="151">
-        <f t="shared" si="27"/>
+        <f>F51</f>
         <v>7.25</v>
       </c>
-      <c r="W51" s="15"/>
-      <c r="X51" s="151"/>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S51" s="155"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="155"/>
+      <c r="V51" s="155"/>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
@@ -16289,31 +16069,31 @@
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
+      <c r="N52" s="10">
+        <f>E52</f>
+        <v>5.26</v>
+      </c>
+      <c r="O52" s="10">
+        <v>3.7069999999999999</v>
+      </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10">
-        <f t="shared" si="26"/>
-        <v>5.26</v>
-      </c>
-      <c r="S52" s="10">
-        <v>3.7069999999999999</v>
-      </c>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="151">
-        <f t="shared" si="27"/>
+        <f>F52</f>
         <v>11.395</v>
       </c>
-      <c r="W52" s="15">
+      <c r="S52" s="155">
         <v>4.383</v>
       </c>
-      <c r="X52" s="151"/>
-    </row>
-    <row r="53" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T52" s="15">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="U52" s="155"/>
+      <c r="V52" s="155"/>
+    </row>
+    <row r="53" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C53" s="11">
         <f>SUM(C47:C52)</f>
@@ -16332,65 +16112,57 @@
         <v>133.57</v>
       </c>
       <c r="K53" s="11">
-        <f t="shared" ref="K53:V53" si="28">SUM(K47:K52)</f>
+        <f t="shared" ref="K53:R53" si="40">SUM(K47:K52)</f>
         <v>0</v>
       </c>
       <c r="L53" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="40"/>
+        <v>106.45699999999999</v>
+      </c>
+      <c r="O53" s="11">
+        <f t="shared" si="40"/>
+        <v>133.57</v>
+      </c>
+      <c r="P53" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="O53" s="11">
-        <f t="shared" si="28"/>
+      <c r="Q53" s="11">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="P53" s="11">
-        <f t="shared" si="28"/>
+      <c r="R53" s="11">
+        <f t="shared" si="40"/>
+        <v>133.57</v>
+      </c>
+      <c r="S53" s="153">
+        <f t="shared" ref="S53:T53" si="41">SUM(S47:S52)</f>
+        <v>156.48500000000001</v>
+      </c>
+      <c r="T53" s="14">
+        <f t="shared" ref="T53:V53" si="42">SUM(T47:T52)</f>
+        <v>159.51499999999999</v>
+      </c>
+      <c r="U53" s="153">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="28"/>
+      <c r="V53" s="153">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="R53" s="11">
-        <f t="shared" si="28"/>
-        <v>106.45699999999999</v>
-      </c>
-      <c r="S53" s="11">
-        <f t="shared" si="28"/>
-        <v>133.57</v>
-      </c>
-      <c r="T53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="11">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="152">
-        <f t="shared" si="28"/>
-        <v>133.57</v>
-      </c>
-      <c r="W53" s="14">
-        <f t="shared" ref="W53:X53" si="29">SUM(W47:W52)</f>
-        <v>156.48500000000001</v>
-      </c>
-      <c r="X53" s="152">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
@@ -16405,31 +16177,31 @@
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
+      <c r="N54" s="10">
+        <f>E54</f>
+        <v>11.69</v>
+      </c>
+      <c r="O54" s="10">
+        <v>22.04</v>
+      </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10">
-        <f t="shared" ref="R54:R57" si="30">E54</f>
-        <v>11.69</v>
-      </c>
-      <c r="S54" s="10">
+        <f>F54</f>
         <v>22.04</v>
       </c>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="151">
-        <f t="shared" ref="V54:V57" si="31">F54</f>
-        <v>22.04</v>
-      </c>
-      <c r="W54" s="15">
+      <c r="S54" s="155">
         <v>20.835000000000001</v>
       </c>
-      <c r="X54" s="151"/>
-    </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T54" s="15">
+        <v>22.757000000000001</v>
+      </c>
+      <c r="U54" s="155"/>
+      <c r="V54" s="155"/>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -16440,27 +16212,25 @@
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="N55" s="10">
+        <f>E55</f>
+        <v>0</v>
+      </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
       <c r="R55" s="10">
-        <f t="shared" si="30"/>
+        <f>F55</f>
         <v>0</v>
       </c>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="151">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="W55" s="15"/>
-      <c r="X55" s="151"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S55" s="155"/>
+      <c r="T55" s="15"/>
+      <c r="U55" s="155"/>
+      <c r="V55" s="155"/>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -16475,27 +16245,25 @@
       <c r="K56" s="10"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
+      <c r="N56" s="10">
+        <f>E56</f>
+        <v>1853.492</v>
+      </c>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10">
-        <f t="shared" si="30"/>
+        <f>F56</f>
         <v>1853.492</v>
       </c>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="151">
-        <f t="shared" si="31"/>
-        <v>1853.492</v>
-      </c>
-      <c r="W56" s="15"/>
-      <c r="X56" s="151"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="S56" s="155"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="155"/>
+      <c r="V56" s="155"/>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
@@ -16510,31 +16278,31 @@
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
+      <c r="N57" s="10">
+        <f>E57</f>
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="O57" s="10">
+        <v>0.28699999999999998</v>
+      </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10">
-        <f t="shared" si="30"/>
-        <v>7.1360000000000001</v>
-      </c>
-      <c r="S57" s="10">
+        <f>F57</f>
         <v>0.28699999999999998</v>
       </c>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="151">
-        <f t="shared" si="31"/>
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="W57" s="15">
+      <c r="S57" s="155">
         <v>0.27600000000000002</v>
       </c>
-      <c r="X57" s="151"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="T57" s="15">
+        <v>0.255</v>
+      </c>
+      <c r="U57" s="155"/>
+      <c r="V57" s="155"/>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" s="11">
         <f>SUM(C53:C57)</f>
@@ -16553,72 +16321,64 @@
         <v>2009.3889999999999</v>
       </c>
       <c r="K58" s="11">
-        <f t="shared" ref="K58:V58" si="32">SUM(K53:K57)</f>
+        <f t="shared" ref="K58:R58" si="43">SUM(K53:K57)</f>
         <v>0</v>
       </c>
       <c r="L58" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
+        <v>1978.7749999999999</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="43"/>
+        <v>155.89699999999999</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="O58" s="11">
-        <f t="shared" si="32"/>
+      <c r="Q58" s="11">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="P58" s="11">
-        <f t="shared" si="32"/>
+      <c r="R58" s="11">
+        <f t="shared" si="43"/>
+        <v>2009.3889999999999</v>
+      </c>
+      <c r="S58" s="153">
+        <f t="shared" ref="S58:T58" si="44">SUM(S53:S57)</f>
+        <v>177.59600000000003</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" ref="T58:V58" si="45">SUM(T53:T57)</f>
+        <v>182.52699999999999</v>
+      </c>
+      <c r="U58" s="153">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="11">
-        <f t="shared" si="32"/>
+      <c r="V58" s="153">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="R58" s="11">
-        <f t="shared" si="32"/>
-        <v>1978.7749999999999</v>
-      </c>
-      <c r="S58" s="11">
-        <f t="shared" si="32"/>
-        <v>155.89699999999999</v>
-      </c>
-      <c r="T58" s="11">
-        <f t="shared" si="32"/>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="10">
+        <f t="shared" ref="C59:D59" si="46">C46-C58</f>
         <v>0</v>
       </c>
-      <c r="U58" s="11">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="V58" s="152">
-        <f t="shared" si="32"/>
-        <v>2009.3889999999999</v>
-      </c>
-      <c r="W58" s="14">
-        <f t="shared" ref="W58:X58" si="33">SUM(W53:W57)</f>
-        <v>177.59600000000003</v>
-      </c>
-      <c r="X58" s="152">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" ref="C59:D59" si="34">C46-C58</f>
-        <v>0</v>
-      </c>
       <c r="D59" s="10">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>-286.01299999999969</v>
       </c>
       <c r="E59" s="10">
@@ -16630,82 +16390,74 @@
         <v>-412.92200000000025</v>
       </c>
       <c r="K59" s="10">
-        <f t="shared" ref="K59:V59" si="35">K46-K58</f>
+        <f t="shared" ref="K59:R59" si="47">K46-K58</f>
         <v>0</v>
       </c>
       <c r="L59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="M59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="35"/>
+        <f t="shared" si="47"/>
+        <v>-377.02399999999943</v>
+      </c>
+      <c r="O59" s="10">
+        <f t="shared" si="47"/>
+        <v>1440.5700000000002</v>
+      </c>
+      <c r="P59" s="10">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="O59" s="10">
-        <f t="shared" si="35"/>
+      <c r="Q59" s="10">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="P59" s="10">
-        <f t="shared" si="35"/>
+      <c r="R59" s="10">
+        <f>R46-R58</f>
+        <v>-412.92200000000025</v>
+      </c>
+      <c r="S59" s="155">
+        <f t="shared" ref="S59:T59" si="48">S46-S58</f>
+        <v>1838.3</v>
+      </c>
+      <c r="T59" s="15">
+        <f t="shared" ref="T59:V59" si="49">T46-T58</f>
+        <v>1893.835</v>
+      </c>
+      <c r="U59" s="155">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="10">
-        <f t="shared" si="35"/>
+      <c r="V59" s="155">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="R59" s="10">
-        <f t="shared" si="35"/>
-        <v>-377.02399999999943</v>
-      </c>
-      <c r="S59" s="10">
-        <f t="shared" si="35"/>
-        <v>1440.5700000000002</v>
-      </c>
-      <c r="T59" s="10">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="10">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="V59" s="151">
-        <f t="shared" si="35"/>
-        <v>-412.92200000000025</v>
-      </c>
-      <c r="W59" s="15">
-        <f t="shared" ref="W59:X59" si="36">W46-W58</f>
-        <v>1838.3</v>
-      </c>
-      <c r="X59" s="151">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="54"/>
-      <c r="V61" s="155"/>
-      <c r="W61" s="16"/>
-    </row>
-    <row r="79" spans="6:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F79" s="42"/>
-      <c r="V79" s="156"/>
-      <c r="W79" s="42"/>
-    </row>
-    <row r="80" spans="6:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="53"/>
+      <c r="S61" s="161"/>
+      <c r="T61" s="16"/>
+    </row>
+    <row r="79" spans="6:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="41"/>
+      <c r="S79" s="162"/>
+      <c r="T79" s="41"/>
+    </row>
+    <row r="80" spans="6:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F80" s="16"/>
-      <c r="V80" s="155"/>
-      <c r="W80" s="16"/>
+      <c r="S80" s="161"/>
+      <c r="T80" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -16729,7 +16481,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -16777,26 +16529,26 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="12"/>
       <c r="C2" s="18"/>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -16806,7 +16558,7 @@
         <v>45328</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M3" s="12"/>
     </row>
@@ -16817,7 +16569,7 @@
         <v>45302</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M4" s="12"/>
     </row>
@@ -25112,60 +24864,60 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="140" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="142"/>
+        <v>89</v>
+      </c>
+      <c r="H1" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" t="e">
         <f>C2/C3-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" t="e">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="M3" s="70" t="s">
-        <v>102</v>
+      <c r="H3" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -25173,27 +24925,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="71" t="e">
+      <c r="H4" s="70" t="e">
         <f>$I$19-3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="72" t="e">
+      <c r="I4" s="71" t="e">
         <f>H4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="73">
+      <c r="J4" s="72">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K4" s="73" t="e">
+      <c r="K4" s="72" t="e">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="74" t="e">
+      <c r="L4" s="73" t="e">
         <f>J4/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="75" t="e">
+      <c r="M4" s="74" t="e">
         <f>L4</f>
         <v>#DIV/0!</v>
       </c>
@@ -25203,27 +24955,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="76" t="e">
+      <c r="H5" s="75" t="e">
         <f>$I$19-2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="77" t="e">
+      <c r="I5" s="76" t="e">
         <f>H5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="78">
+      <c r="J5" s="77">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>67</v>
       </c>
-      <c r="K5" s="79" t="e">
+      <c r="K5" s="78" t="e">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="80" t="e">
+      <c r="L5" s="79" t="e">
         <f>J5/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="81" t="e">
+      <c r="M5" s="80" t="e">
         <f>M4+L5</f>
         <v>#DIV/0!</v>
       </c>
@@ -25233,27 +24985,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="76" t="e">
+      <c r="H6" s="75" t="e">
         <f>$I$19-1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="77" t="e">
+      <c r="I6" s="76" t="e">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="77">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>67</v>
       </c>
-      <c r="K6" s="79" t="e">
+      <c r="K6" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="80" t="e">
+      <c r="L6" s="79" t="e">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="81" t="e">
+      <c r="M6" s="80" t="e">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>#DIV/0!</v>
       </c>
@@ -25263,27 +25015,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="76" t="e">
+      <c r="H7" s="75" t="e">
         <f>$I$19-1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="77" t="e">
+      <c r="I7" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K7" s="79" t="e">
+      <c r="K7" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="80" t="e">
+      <c r="L7" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="81" t="e">
+      <c r="M7" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25293,27 +25045,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="76" t="e">
+      <c r="H8" s="75" t="e">
         <f>$I$19-0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="77" t="e">
+      <c r="I8" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="78">
+      <c r="J8" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K8" s="79" t="e">
+      <c r="K8" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="80" t="e">
+      <c r="L8" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="81" t="e">
+      <c r="M8" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25323,27 +25075,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="76" t="e">
+      <c r="H9" s="75" t="e">
         <f>$I$19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="77" t="e">
+      <c r="I9" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K9" s="79" t="e">
+      <c r="K9" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="80" t="e">
+      <c r="L9" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="81" t="e">
+      <c r="M9" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25353,27 +25105,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="76" t="e">
+      <c r="H10" s="75" t="e">
         <f>$I$19+0.6*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="77" t="e">
+      <c r="I10" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="78">
+      <c r="J10" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K10" s="79" t="e">
+      <c r="K10" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="80" t="e">
+      <c r="L10" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="81" t="e">
+      <c r="M10" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25383,27 +25135,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="76" t="e">
+      <c r="H11" s="75" t="e">
         <f>$I$19+1.2*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="77" t="e">
+      <c r="I11" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K11" s="79" t="e">
+      <c r="K11" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="80" t="e">
+      <c r="L11" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="81" t="e">
+      <c r="M11" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25413,27 +25165,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="76" t="e">
+      <c r="H12" s="75" t="e">
         <f>$I$19+1.8*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="77" t="e">
+      <c r="I12" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="78">
+      <c r="J12" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K12" s="79" t="e">
+      <c r="K12" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="80" t="e">
+      <c r="L12" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="81" t="e">
+      <c r="M12" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25443,27 +25195,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="76" t="e">
+      <c r="H13" s="75" t="e">
         <f>$I$19+2.4*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="77" t="e">
+      <c r="I13" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="78">
+      <c r="J13" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K13" s="79" t="e">
+      <c r="K13" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="80" t="e">
+      <c r="L13" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="81" t="e">
+      <c r="M13" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25473,27 +25225,27 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="76" t="e">
+      <c r="H14" s="75" t="e">
         <f>$I$19+3*$I$23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="77" t="e">
+      <c r="I14" s="76" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="77">
         <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="K14" s="79" t="e">
+      <c r="K14" s="78" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="80" t="e">
+      <c r="L14" s="79" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="81" t="e">
+      <c r="M14" s="80" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25503,23 +25255,23 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="83" t="s">
-        <v>103</v>
-      </c>
-      <c r="J15" s="83">
+      <c r="H15" s="81"/>
+      <c r="I15" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="82">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>67</v>
       </c>
-      <c r="K15" s="83" t="e">
+      <c r="K15" s="82" t="e">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="84" t="e">
+      <c r="L15" s="83" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="84" t="e">
+      <c r="M15" s="83" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
@@ -25529,350 +25281,350 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="M16" s="86"/>
+      <c r="H16" s="84"/>
+      <c r="M16" s="85"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="143" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="144"/>
-      <c r="M17" s="86"/>
+      <c r="H17" s="145" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="146"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="145"/>
-      <c r="I18" s="146"/>
-      <c r="M18" s="86"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
+      <c r="M18" s="85"/>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="124" t="e">
+      <c r="H19" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="123" t="e">
         <f>AVERAGE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="86"/>
+      <c r="M19" s="85"/>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="87" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="124" t="e">
+      <c r="H20" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="123" t="e">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="86"/>
+      <c r="M20" s="85"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="124" t="e">
+      <c r="H21" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="123" t="e">
         <f>MEDIAN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="86"/>
+      <c r="M21" s="85"/>
     </row>
     <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="I22" s="124" t="e">
+      <c r="H22" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="123" t="e">
         <f>MODE(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="86"/>
+      <c r="M22" s="85"/>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="124" t="e">
+      <c r="H23" s="86" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="123" t="e">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="86"/>
+      <c r="M23" s="85"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="124" t="e">
+      <c r="H24" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="123" t="e">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="86"/>
+      <c r="M24" s="85"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="I25" s="125" t="e">
+      <c r="H25" s="86" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="124" t="e">
         <f>KURT(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="86"/>
+      <c r="M25" s="85"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="125" t="e">
+      <c r="H26" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="124" t="e">
         <f>SKEW(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="86"/>
+      <c r="M26" s="85"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="I27" s="124" t="e">
+      <c r="H27" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="123" t="e">
         <f>I29-I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="86"/>
+      <c r="M27" s="85"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="I28" s="124" t="e">
+      <c r="H28" s="86" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="123" t="e">
         <f>MIN(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="86"/>
+      <c r="M28" s="85"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="124" t="e">
+      <c r="H29" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" s="123" t="e">
         <f>MAX(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="86"/>
+      <c r="M29" s="85"/>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="I30" s="125" t="e">
+      <c r="H30" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="I30" s="124" t="e">
         <f>SUM(D:D)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="86"/>
+      <c r="M30" s="85"/>
     </row>
     <row r="31" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="I31" s="65">
+      <c r="H31" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="64">
         <f>COUNT(D:D)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="86"/>
+      <c r="M31" s="85"/>
     </row>
     <row r="32" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="90"/>
-      <c r="M32" s="86"/>
+      <c r="H32" s="89"/>
+      <c r="M32" s="85"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="L33" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="M33" s="86"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="92" t="s">
+        <v>112</v>
+      </c>
+      <c r="M33" s="85"/>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="I34" s="80" t="e">
+      <c r="H34" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="79" t="e">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="78">
+      <c r="J34" s="77">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>0</v>
       </c>
-      <c r="K34" s="80" t="e">
+      <c r="K34" s="79" t="e">
         <f>J34/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="81" t="e">
+      <c r="L34" s="80" t="e">
         <f>K34*I34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="86"/>
+      <c r="M34" s="85"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="80" t="e">
+      <c r="H35" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" s="79" t="e">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="78">
+      <c r="J35" s="77">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>0</v>
       </c>
-      <c r="K35" s="80" t="e">
+      <c r="K35" s="79" t="e">
         <f>J35/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="81" t="e">
+      <c r="L35" s="80" t="e">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M35" s="86"/>
+      <c r="M35" s="85"/>
     </row>
     <row r="36" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="95" t="s">
-        <v>121</v>
-      </c>
-      <c r="I36" s="83">
+      <c r="H36" s="94" t="s">
+        <v>115</v>
+      </c>
+      <c r="I36" s="82">
         <v>0</v>
       </c>
-      <c r="J36" s="83">
+      <c r="J36" s="82">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="96" t="e">
+      <c r="K36" s="95" t="e">
         <f>J36/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="84" t="e">
+      <c r="L36" s="83" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M36" s="86"/>
+      <c r="M36" s="85"/>
     </row>
     <row r="37" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="86"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="85"/>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="I38" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="J38" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="K38" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="L38" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="M38" s="93" t="s">
-        <v>127</v>
+      <c r="H38" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="92" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
@@ -25880,26 +25632,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="98">
+      <c r="H39" s="97">
         <v>1</v>
       </c>
-      <c r="I39" s="80" t="e">
+      <c r="I39" s="79" t="e">
         <f>$I$19+($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="80" t="e">
+      <c r="J39" s="79" t="e">
         <f>$I$19-($H39*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="78">
+      <c r="K39" s="77">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>67</v>
       </c>
-      <c r="L39" s="80" t="e">
+      <c r="L39" s="79" t="e">
         <f>K39/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="81">
+      <c r="M39" s="80">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -25908,26 +25660,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="97">
         <v>2</v>
       </c>
-      <c r="I40" s="80" t="e">
+      <c r="I40" s="79" t="e">
         <f>$I$19+($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="80" t="e">
+      <c r="J40" s="79" t="e">
         <f>$I$19-($H40*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="78">
+      <c r="K40" s="77">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>67</v>
       </c>
-      <c r="L40" s="80" t="e">
+      <c r="L40" s="79" t="e">
         <f>K40/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="81">
+      <c r="M40" s="80">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -25936,26 +25688,26 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="97">
         <v>3</v>
       </c>
-      <c r="I41" s="80" t="e">
+      <c r="I41" s="79" t="e">
         <f>$I$19+($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J41" s="80" t="e">
+      <c r="J41" s="79" t="e">
         <f>$I$19-($H41*$I$23)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" s="78">
+      <c r="K41" s="77">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>67</v>
       </c>
-      <c r="L41" s="80" t="e">
+      <c r="L41" s="79" t="e">
         <f>K41/$I$31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="99">
+      <c r="M41" s="98">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -25964,46 +25716,46 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="76"/>
-      <c r="M42" s="99"/>
+      <c r="H42" s="75"/>
+      <c r="M42" s="98"/>
     </row>
     <row r="43" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="147" t="s">
-        <v>128</v>
-      </c>
-      <c r="I43" s="148"/>
-      <c r="J43" s="148"/>
-      <c r="K43" s="148"/>
-      <c r="L43" s="148"/>
-      <c r="M43" s="149"/>
+      <c r="H43" s="149" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D44" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="100">
+      <c r="H44" s="99">
         <v>0.01</v>
       </c>
-      <c r="I44" s="101" t="e">
+      <c r="I44" s="100" t="e">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="102">
+      <c r="J44" s="101">
         <v>0.2</v>
       </c>
-      <c r="K44" s="101" t="e">
+      <c r="K44" s="100" t="e">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="102">
+      <c r="L44" s="101">
         <v>0.85</v>
       </c>
-      <c r="M44" s="103" t="e">
+      <c r="M44" s="102" t="e">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>#DIV/0!</v>
       </c>
@@ -26013,24 +25765,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="104">
+      <c r="H45" s="103">
         <v>0.02</v>
       </c>
-      <c r="I45" s="105" t="e">
+      <c r="I45" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J45" s="106">
+      <c r="J45" s="105">
         <v>0.25</v>
       </c>
-      <c r="K45" s="105" t="e">
+      <c r="K45" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L45" s="106">
+      <c r="L45" s="105">
         <v>0.86</v>
       </c>
-      <c r="M45" s="107" t="e">
+      <c r="M45" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26040,24 +25792,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="104">
+      <c r="H46" s="103">
         <v>0.03</v>
       </c>
-      <c r="I46" s="105" t="e">
+      <c r="I46" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J46" s="106">
+      <c r="J46" s="105">
         <v>0.3</v>
       </c>
-      <c r="K46" s="105" t="e">
+      <c r="K46" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L46" s="106">
+      <c r="L46" s="105">
         <v>0.87</v>
       </c>
-      <c r="M46" s="107" t="e">
+      <c r="M46" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26067,24 +25819,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="104">
+      <c r="H47" s="103">
         <v>0.04</v>
       </c>
-      <c r="I47" s="105" t="e">
+      <c r="I47" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J47" s="106">
+      <c r="J47" s="105">
         <v>0.35</v>
       </c>
-      <c r="K47" s="105" t="e">
+      <c r="K47" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L47" s="106">
+      <c r="L47" s="105">
         <v>0.88</v>
       </c>
-      <c r="M47" s="107" t="e">
+      <c r="M47" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26094,24 +25846,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="104">
+      <c r="H48" s="103">
         <v>0.05</v>
       </c>
-      <c r="I48" s="105" t="e">
+      <c r="I48" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J48" s="106">
+      <c r="J48" s="105">
         <v>0.4</v>
       </c>
-      <c r="K48" s="105" t="e">
+      <c r="K48" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L48" s="106">
+      <c r="L48" s="105">
         <v>0.89</v>
       </c>
-      <c r="M48" s="107" t="e">
+      <c r="M48" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26121,24 +25873,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="104">
+      <c r="H49" s="103">
         <v>0.06</v>
       </c>
-      <c r="I49" s="105" t="e">
+      <c r="I49" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="106">
+      <c r="J49" s="105">
         <v>0.45</v>
       </c>
-      <c r="K49" s="105" t="e">
+      <c r="K49" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="106">
+      <c r="L49" s="105">
         <v>0.9</v>
       </c>
-      <c r="M49" s="107" t="e">
+      <c r="M49" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26148,24 +25900,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="104">
+      <c r="H50" s="103">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="105" t="e">
+      <c r="I50" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J50" s="106">
+      <c r="J50" s="105">
         <v>0.5</v>
       </c>
-      <c r="K50" s="105" t="e">
+      <c r="K50" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L50" s="106">
+      <c r="L50" s="105">
         <v>0.91</v>
       </c>
-      <c r="M50" s="107" t="e">
+      <c r="M50" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26175,24 +25927,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="104">
+      <c r="H51" s="103">
         <v>0.08</v>
       </c>
-      <c r="I51" s="105" t="e">
+      <c r="I51" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J51" s="106">
+      <c r="J51" s="105">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="105" t="e">
+      <c r="K51" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L51" s="106">
+      <c r="L51" s="105">
         <v>0.92</v>
       </c>
-      <c r="M51" s="107" t="e">
+      <c r="M51" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26202,24 +25954,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="104">
+      <c r="H52" s="103">
         <v>0.09</v>
       </c>
-      <c r="I52" s="105" t="e">
+      <c r="I52" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J52" s="106">
+      <c r="J52" s="105">
         <v>0.6</v>
       </c>
-      <c r="K52" s="105" t="e">
+      <c r="K52" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L52" s="106">
+      <c r="L52" s="105">
         <v>0.93</v>
       </c>
-      <c r="M52" s="107" t="e">
+      <c r="M52" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26229,24 +25981,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="104">
+      <c r="H53" s="103">
         <v>0.1</v>
       </c>
-      <c r="I53" s="105" t="e">
+      <c r="I53" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J53" s="106">
+      <c r="J53" s="105">
         <v>0.65</v>
       </c>
-      <c r="K53" s="105" t="e">
+      <c r="K53" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L53" s="106">
+      <c r="L53" s="105">
         <v>0.94</v>
       </c>
-      <c r="M53" s="107" t="e">
+      <c r="M53" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26256,24 +26008,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="104">
+      <c r="H54" s="103">
         <v>0.11</v>
       </c>
-      <c r="I54" s="105" t="e">
+      <c r="I54" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J54" s="106">
+      <c r="J54" s="105">
         <v>0.7</v>
       </c>
-      <c r="K54" s="105" t="e">
+      <c r="K54" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L54" s="106">
+      <c r="L54" s="105">
         <v>0.95</v>
       </c>
-      <c r="M54" s="107" t="e">
+      <c r="M54" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26283,24 +26035,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="104">
+      <c r="H55" s="103">
         <v>0.12</v>
       </c>
-      <c r="I55" s="105" t="e">
+      <c r="I55" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J55" s="106">
+      <c r="J55" s="105">
         <v>0.75</v>
       </c>
-      <c r="K55" s="105" t="e">
+      <c r="K55" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L55" s="106">
+      <c r="L55" s="105">
         <v>0.96</v>
       </c>
-      <c r="M55" s="107" t="e">
+      <c r="M55" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26310,24 +26062,24 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="104">
+      <c r="H56" s="103">
         <v>0.13</v>
       </c>
-      <c r="I56" s="105" t="e">
+      <c r="I56" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J56" s="106">
+      <c r="J56" s="105">
         <v>0.8</v>
       </c>
-      <c r="K56" s="105" t="e">
+      <c r="K56" s="104" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L56" s="106">
+      <c r="L56" s="105">
         <v>0.97</v>
       </c>
-      <c r="M56" s="107" t="e">
+      <c r="M56" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26337,19 +26089,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="104">
+      <c r="H57" s="103">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="105" t="e">
+      <c r="I57" s="104" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J57" s="106"/>
-      <c r="K57" s="105"/>
-      <c r="L57" s="106">
+      <c r="J57" s="105"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="105">
         <v>0.98</v>
       </c>
-      <c r="M57" s="107" t="e">
+      <c r="M57" s="106" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26359,19 +26111,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="108">
+      <c r="H58" s="107">
         <v>0.15</v>
       </c>
-      <c r="I58" s="109" t="e">
+      <c r="I58" s="108" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J58" s="110"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="111">
+      <c r="J58" s="109"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="110">
         <v>0.99</v>
       </c>
-      <c r="M58" s="112" t="e">
+      <c r="M58" s="111" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -26387,47 +26139,47 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="113" t="s">
-        <v>129</v>
-      </c>
-      <c r="I60" s="114"/>
+      <c r="H60" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="113"/>
     </row>
     <row r="61" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="116"/>
+      <c r="H61" s="114" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" s="115"/>
     </row>
     <row r="62" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="117"/>
+      <c r="H62" s="116"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D63" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H63" s="113" t="s">
-        <v>131</v>
-      </c>
-      <c r="I63" s="118"/>
+      <c r="H63" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="117"/>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D64" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H64" s="119" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" s="120">
+      <c r="H64" s="118" t="s">
+        <v>126</v>
+      </c>
+      <c r="I64" s="119">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -26437,10 +26189,10 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H65" s="115" t="s">
-        <v>133</v>
-      </c>
-      <c r="I65" s="121">
+      <c r="H65" s="114" t="s">
+        <v>127</v>
+      </c>
+      <c r="I65" s="120">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
